--- a/gdis_add/gdis_add.xlsx
+++ b/gdis_add/gdis_add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annapalmer/Documents/GitHub/cyclone-child-marraige/gdis_add/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF4CE5C-F5AF-654E-B07E-3D6D25490630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E76D8A-F915-FC4B-B20A-0787E101E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33200" windowHeight="26840" xr2:uid="{8B3C2910-A142-E24E-B6E2-3953F98EE702}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="794">
   <si>
     <t>id</t>
   </si>
@@ -1595,6 +1595,12 @@
     <t>Souss - Massa - Draâ</t>
   </si>
   <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
     <t>2005-0732-SLV</t>
   </si>
   <si>
@@ -2064,6 +2070,354 @@
   </si>
   <si>
     <t>Kankan</t>
+  </si>
+  <si>
+    <t>2008-0439-GMB</t>
+  </si>
+  <si>
+    <t>Lower River</t>
+  </si>
+  <si>
+    <t>North Bank</t>
+  </si>
+  <si>
+    <t>Upper River</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>2008-0366-GNB</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>2008-0104-SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Hhohho</t>
+  </si>
+  <si>
+    <t>Lubombo</t>
+  </si>
+  <si>
+    <t>2008-0352-TCA</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands (the)</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>Grand Turk</t>
+  </si>
+  <si>
+    <t>Middle Caicos</t>
+  </si>
+  <si>
+    <t>North Caicos</t>
+  </si>
+  <si>
+    <t>Salt Cay</t>
+  </si>
+  <si>
+    <t>Providenciales and West Caicos</t>
+  </si>
+  <si>
+    <t>South Caicos and East Caicos</t>
+  </si>
+  <si>
+    <t>2008-0329-THA</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>Chiang Rai</t>
+  </si>
+  <si>
+    <t>Loei</t>
+  </si>
+  <si>
+    <t>Nakhon Phanom</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Nong Khai</t>
+  </si>
+  <si>
+    <t>Phayao</t>
+  </si>
+  <si>
+    <t>Phitsanulok</t>
+  </si>
+  <si>
+    <t>Sakon Nakhon</t>
+  </si>
+  <si>
+    <t>Udon Thani</t>
+  </si>
+  <si>
+    <t>Uttaradit</t>
+  </si>
+  <si>
+    <t>2008-0282-SLV</t>
+  </si>
+  <si>
+    <t>2008-0338-JAM</t>
+  </si>
+  <si>
+    <t>Saint James</t>
+  </si>
+  <si>
+    <t>2008-0223-MNG</t>
+  </si>
+  <si>
+    <t>Dzavhan</t>
+  </si>
+  <si>
+    <t>2008-0331-SSD</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Bor</t>
+  </si>
+  <si>
+    <t>Jungoli</t>
+  </si>
+  <si>
+    <t>Nahr Atiem</t>
+  </si>
+  <si>
+    <t>Aweil</t>
+  </si>
+  <si>
+    <t>North Bahr-al-Ghazal</t>
+  </si>
+  <si>
+    <t>Sobat</t>
+  </si>
+  <si>
+    <t>Upper Nile</t>
+  </si>
+  <si>
+    <t>Gogrial</t>
+  </si>
+  <si>
+    <t>Malek</t>
+  </si>
+  <si>
+    <t>Tonj</t>
+  </si>
+  <si>
+    <t>Warab</t>
+  </si>
+  <si>
+    <t>Warap</t>
+  </si>
+  <si>
+    <t>2008-0520-SSD</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Al Mabien</t>
+  </si>
+  <si>
+    <t>Mayot</t>
+  </si>
+  <si>
+    <t>Aryat</t>
+  </si>
+  <si>
+    <t>Nahr Lol</t>
+  </si>
+  <si>
+    <t>Wanjuk</t>
+  </si>
+  <si>
+    <t>Al Leiri</t>
+  </si>
+  <si>
+    <t>Al Mayom</t>
+  </si>
+  <si>
+    <t>Faring</t>
+  </si>
+  <si>
+    <t>Rabkona</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>2009-0204-BTN</t>
+  </si>
+  <si>
+    <t>Chhukha</t>
+  </si>
+  <si>
+    <t>Dagana</t>
+  </si>
+  <si>
+    <t>Gasa</t>
+  </si>
+  <si>
+    <t>Paro</t>
+  </si>
+  <si>
+    <t>Punakha</t>
+  </si>
+  <si>
+    <t>Samtse</t>
+  </si>
+  <si>
+    <t>Tsirang</t>
+  </si>
+  <si>
+    <t>Wangduephodrang</t>
+  </si>
+  <si>
+    <t>2009-0042-DOM</t>
+  </si>
+  <si>
+    <t>2009-0043-MAR</t>
+  </si>
+  <si>
+    <t>Meknès - Tafilalet</t>
+  </si>
+  <si>
+    <t>Chaouia - Ouardigha</t>
+  </si>
+  <si>
+    <t>Doukkala - Abda</t>
+  </si>
+  <si>
+    <t>Fès - Boulemane</t>
+  </si>
+  <si>
+    <t>Gharb - Chrarda - Béni Hssen</t>
+  </si>
+  <si>
+    <t>Grand Casablanca</t>
+  </si>
+  <si>
+    <t>Marrakech - Tensift - Al Haouz</t>
+  </si>
+  <si>
+    <t>Rabat - Salé - Zemmour - Zaer</t>
+  </si>
+  <si>
+    <t>Tadla - Azilal</t>
+  </si>
+  <si>
+    <t>Tanger - Tétouan</t>
+  </si>
+  <si>
+    <t>Taza - Al Hoceima - Taounate</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>2009-0123-MDG</t>
+  </si>
+  <si>
+    <t>Androy</t>
+  </si>
+  <si>
+    <t>Anosy</t>
+  </si>
+  <si>
+    <t>Menabe</t>
+  </si>
+  <si>
+    <t>2009-0195-PHL</t>
+  </si>
+  <si>
+    <t>2009-0294-BGD</t>
+  </si>
+  <si>
+    <t>2009-0243-BFA</t>
+  </si>
+  <si>
+    <t>2009-0445-GMB</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>2009-0609-IND</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>2009-0608-NPL</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Bagmati</t>
+  </si>
+  <si>
+    <t>Central</t>
   </si>
 </sst>
 </file>
@@ -2445,17 +2799,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590A087B-F103-3D46-B341-5CE0E0EE3123}">
-  <dimension ref="A1:AY720"/>
+  <dimension ref="A1:AY861"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A710" sqref="A710:XFD725"/>
+      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D857" sqref="D857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="17.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
     <col min="10" max="15" width="10.83203125" style="2"/>
     <col min="16" max="16" width="14.33203125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="2"/>
@@ -14360,7 +14714,7 @@
         <v>36</v>
       </c>
       <c r="P448" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="449" spans="1:51" x14ac:dyDescent="0.2">
@@ -14383,7 +14737,7 @@
         <v>36</v>
       </c>
       <c r="P449" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="450" spans="1:51" x14ac:dyDescent="0.2">
@@ -14406,7 +14760,7 @@
         <v>36</v>
       </c>
       <c r="P450" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="451" spans="1:51" x14ac:dyDescent="0.2">
@@ -14429,7 +14783,7 @@
         <v>36</v>
       </c>
       <c r="P451" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="452" spans="1:51" x14ac:dyDescent="0.2">
@@ -14452,7 +14806,7 @@
         <v>36</v>
       </c>
       <c r="P452" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="453" spans="1:51" x14ac:dyDescent="0.2">
@@ -14476,7 +14830,7 @@
         <v>36</v>
       </c>
       <c r="P453" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="454" spans="1:51" x14ac:dyDescent="0.2">
@@ -14499,7 +14853,7 @@
         <v>36</v>
       </c>
       <c r="P454" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="455" spans="1:51" x14ac:dyDescent="0.2">
@@ -14522,7 +14876,7 @@
         <v>36</v>
       </c>
       <c r="P455" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="456" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -14550,7 +14904,7 @@
         <v>36</v>
       </c>
       <c r="P456" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="457" spans="1:51" x14ac:dyDescent="0.2">
@@ -14573,7 +14927,7 @@
         <v>36</v>
       </c>
       <c r="P457" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="458" spans="1:51" x14ac:dyDescent="0.2">
@@ -14596,7 +14950,7 @@
         <v>36</v>
       </c>
       <c r="P458" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="459" spans="1:51" x14ac:dyDescent="0.2">
@@ -14619,7 +14973,7 @@
         <v>36</v>
       </c>
       <c r="P459" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="460" spans="1:51" x14ac:dyDescent="0.2">
@@ -14642,7 +14996,7 @@
         <v>36</v>
       </c>
       <c r="P460" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="461" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -14670,7 +15024,7 @@
         <v>36</v>
       </c>
       <c r="P461" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X461" t="s">
         <v>60</v>
@@ -14708,10 +15062,10 @@
     </row>
     <row r="462" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C462" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E462" s="2">
         <v>2005</v>
@@ -14720,21 +15074,21 @@
         <v>1</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O462" t="s">
         <v>19</v>
       </c>
       <c r="P462" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="463" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C463" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E463" s="2">
         <v>2005</v>
@@ -14743,21 +15097,21 @@
         <v>1</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O463" t="s">
         <v>19</v>
       </c>
       <c r="P463" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="464" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C464" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E464" s="2">
         <v>2005</v>
@@ -14766,21 +15120,21 @@
         <v>1</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="O464" t="s">
         <v>19</v>
       </c>
       <c r="P464" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="465" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C465" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E465" s="2">
         <v>2005</v>
@@ -14789,21 +15143,21 @@
         <v>1</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="O465" t="s">
         <v>19</v>
       </c>
       <c r="P465" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C466" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E466" s="2">
         <v>2005</v>
@@ -14812,21 +15166,21 @@
         <v>1</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O466" t="s">
         <v>19</v>
       </c>
       <c r="P466" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="467" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C467" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E467" s="2">
         <v>2005</v>
@@ -14835,21 +15189,21 @@
         <v>1</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O467" t="s">
         <v>19</v>
       </c>
       <c r="P467" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="468" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C468" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E468" s="2">
         <v>2005</v>
@@ -14858,13 +15212,13 @@
         <v>1</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O468" t="s">
         <v>19</v>
       </c>
       <c r="P468" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="469" spans="1:51" x14ac:dyDescent="0.2">
@@ -14882,19 +15236,19 @@
         <v>3</v>
       </c>
       <c r="I469" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K469" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="J469" s="2" t="s">
+      <c r="O469" t="s">
+        <v>19</v>
+      </c>
+      <c r="P469" t="s">
         <v>533</v>
-      </c>
-      <c r="K469" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O469" t="s">
-        <v>19</v>
-      </c>
-      <c r="P469" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="470" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -14921,7 +15275,7 @@
         <v>36</v>
       </c>
       <c r="P470" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="X470" t="s">
         <v>50</v>
@@ -14960,7 +15314,7 @@
         <v>61</v>
       </c>
       <c r="AX470" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AY470">
         <v>0</v>
@@ -14987,7 +15341,7 @@
         <v>36</v>
       </c>
       <c r="P471" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="472" spans="1:51" x14ac:dyDescent="0.2">
@@ -15011,7 +15365,7 @@
         <v>36</v>
       </c>
       <c r="P472" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="473" spans="1:51" x14ac:dyDescent="0.2">
@@ -15035,7 +15389,7 @@
         <v>36</v>
       </c>
       <c r="P473" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="474" spans="1:51" x14ac:dyDescent="0.2">
@@ -15059,7 +15413,7 @@
         <v>36</v>
       </c>
       <c r="P474" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="475" spans="1:51" x14ac:dyDescent="0.2">
@@ -15083,7 +15437,7 @@
         <v>36</v>
       </c>
       <c r="P475" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="476" spans="1:51" x14ac:dyDescent="0.2">
@@ -15107,7 +15461,7 @@
         <v>36</v>
       </c>
       <c r="P476" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="477" spans="1:51" x14ac:dyDescent="0.2">
@@ -15132,7 +15486,7 @@
         <v>36</v>
       </c>
       <c r="P477" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="478" spans="1:51" x14ac:dyDescent="0.2">
@@ -15156,7 +15510,7 @@
         <v>36</v>
       </c>
       <c r="P478" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="479" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -15183,7 +15537,7 @@
         <v>36</v>
       </c>
       <c r="P479" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="480" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -15210,7 +15564,7 @@
         <v>36</v>
       </c>
       <c r="P480" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="W480">
         <v>120</v>
@@ -15219,10 +15573,10 @@
         <v>60</v>
       </c>
       <c r="Y480" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Z480" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AC480">
         <v>2006</v>
@@ -15264,7 +15618,7 @@
         <v>61</v>
       </c>
       <c r="AX480" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AY480">
         <v>0</v>
@@ -15291,7 +15645,7 @@
         <v>36</v>
       </c>
       <c r="P481" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="482" spans="2:16" x14ac:dyDescent="0.2">
@@ -15315,7 +15669,7 @@
         <v>36</v>
       </c>
       <c r="P482" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="483" spans="2:16" x14ac:dyDescent="0.2">
@@ -15339,7 +15693,7 @@
         <v>36</v>
       </c>
       <c r="P483" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="484" spans="2:16" x14ac:dyDescent="0.2">
@@ -15363,15 +15717,15 @@
         <v>36</v>
       </c>
       <c r="P484" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="485" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C485" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E485" s="2">
         <v>2006</v>
@@ -15380,21 +15734,21 @@
         <v>1</v>
       </c>
       <c r="I485" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="O485" t="s">
         <v>19</v>
       </c>
       <c r="P485" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="486" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C486" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E486" s="2">
         <v>2006</v>
@@ -15403,21 +15757,21 @@
         <v>1</v>
       </c>
       <c r="I486" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O486" t="s">
         <v>19</v>
       </c>
       <c r="P486" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="487" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C487" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E487" s="2">
         <v>2006</v>
@@ -15426,21 +15780,21 @@
         <v>1</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="O487" t="s">
         <v>19</v>
       </c>
       <c r="P487" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="488" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C488" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E488" s="2">
         <v>2006</v>
@@ -15449,21 +15803,21 @@
         <v>1</v>
       </c>
       <c r="I488" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O488" t="s">
         <v>19</v>
       </c>
       <c r="P488" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="489" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C489" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E489" s="2">
         <v>2006</v>
@@ -15472,21 +15826,21 @@
         <v>1</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="O489" t="s">
         <v>19</v>
       </c>
       <c r="P489" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="490" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C490" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E490" s="2">
         <v>2006</v>
@@ -15495,21 +15849,21 @@
         <v>1</v>
       </c>
       <c r="I490" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O490" t="s">
         <v>19</v>
       </c>
       <c r="P490" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="491" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C491" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E491" s="2">
         <v>2006</v>
@@ -15518,21 +15872,21 @@
         <v>1</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O491" t="s">
         <v>19</v>
       </c>
       <c r="P491" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="492" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C492" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E492" s="2">
         <v>2006</v>
@@ -15541,21 +15895,21 @@
         <v>1</v>
       </c>
       <c r="I492" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O492" t="s">
         <v>19</v>
       </c>
       <c r="P492" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="493" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C493" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E493" s="2">
         <v>2006</v>
@@ -15564,21 +15918,21 @@
         <v>1</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O493" t="s">
         <v>19</v>
       </c>
       <c r="P493" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="494" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C494" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E494" s="2">
         <v>2006</v>
@@ -15587,21 +15941,21 @@
         <v>1</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O494" t="s">
         <v>19</v>
       </c>
       <c r="P494" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="495" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C495" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E495" s="2">
         <v>2006</v>
@@ -15610,21 +15964,21 @@
         <v>1</v>
       </c>
       <c r="I495" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="O495" t="s">
         <v>19</v>
       </c>
       <c r="P495" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="496" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C496" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E496" s="2">
         <v>2006</v>
@@ -15633,13 +15987,13 @@
         <v>1</v>
       </c>
       <c r="I496" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="O496" t="s">
         <v>19</v>
       </c>
       <c r="P496" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="497" spans="1:51" ht="17" x14ac:dyDescent="0.2">
@@ -15657,16 +16011,16 @@
         <v>2</v>
       </c>
       <c r="I497" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J497" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="O497" t="s">
+        <v>19</v>
+      </c>
+      <c r="P497" t="s">
         <v>556</v>
-      </c>
-      <c r="J497" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="O497" t="s">
-        <v>19</v>
-      </c>
-      <c r="P497" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="498" spans="1:51" x14ac:dyDescent="0.2">
@@ -15689,7 +16043,7 @@
         <v>19</v>
       </c>
       <c r="P498" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="499" spans="1:51" x14ac:dyDescent="0.2">
@@ -15712,7 +16066,7 @@
         <v>19</v>
       </c>
       <c r="P499" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="500" spans="1:51" x14ac:dyDescent="0.2">
@@ -15735,7 +16089,7 @@
         <v>19</v>
       </c>
       <c r="P500" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="501" spans="1:51" x14ac:dyDescent="0.2">
@@ -15758,7 +16112,7 @@
         <v>19</v>
       </c>
       <c r="P501" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="502" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -15786,7 +16140,7 @@
         <v>19</v>
       </c>
       <c r="P502" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="503" spans="1:51" x14ac:dyDescent="0.2">
@@ -15809,7 +16163,7 @@
         <v>19</v>
       </c>
       <c r="P503" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -15837,16 +16191,16 @@
         <v>19</v>
       </c>
       <c r="P504" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="X504" t="s">
         <v>50</v>
       </c>
       <c r="Y504" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Z504" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AC504">
         <v>2007</v>
@@ -15908,7 +16262,7 @@
         <v>19</v>
       </c>
       <c r="P505" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="506" spans="1:51" x14ac:dyDescent="0.2">
@@ -15925,13 +16279,13 @@
         <v>1</v>
       </c>
       <c r="I506" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O506" t="s">
         <v>19</v>
       </c>
       <c r="P506" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="507" spans="1:51" x14ac:dyDescent="0.2">
@@ -15954,7 +16308,7 @@
         <v>19</v>
       </c>
       <c r="P507" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="508" spans="1:51" customFormat="1" x14ac:dyDescent="0.2">
@@ -15982,7 +16336,7 @@
         <v>19</v>
       </c>
       <c r="P508" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="509" spans="1:51" x14ac:dyDescent="0.2">
@@ -16005,7 +16359,7 @@
         <v>19</v>
       </c>
       <c r="P509" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="510" spans="1:51" x14ac:dyDescent="0.2">
@@ -16028,7 +16382,7 @@
         <v>19</v>
       </c>
       <c r="P510" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="511" spans="1:51" x14ac:dyDescent="0.2">
@@ -16051,7 +16405,7 @@
         <v>19</v>
       </c>
       <c r="P511" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="512" spans="1:51" x14ac:dyDescent="0.2">
@@ -16074,7 +16428,7 @@
         <v>19</v>
       </c>
       <c r="P512" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="513" spans="2:16" x14ac:dyDescent="0.2">
@@ -16097,7 +16451,7 @@
         <v>19</v>
       </c>
       <c r="P513" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="514" spans="2:16" x14ac:dyDescent="0.2">
@@ -16120,7 +16474,7 @@
         <v>19</v>
       </c>
       <c r="P514" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="515" spans="2:16" x14ac:dyDescent="0.2">
@@ -16143,7 +16497,7 @@
         <v>19</v>
       </c>
       <c r="P515" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="516" spans="2:16" x14ac:dyDescent="0.2">
@@ -16166,7 +16520,7 @@
         <v>19</v>
       </c>
       <c r="P516" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="517" spans="2:16" x14ac:dyDescent="0.2">
@@ -16189,7 +16543,7 @@
         <v>19</v>
       </c>
       <c r="P517" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="518" spans="2:16" x14ac:dyDescent="0.2">
@@ -16212,7 +16566,7 @@
         <v>19</v>
       </c>
       <c r="P518" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="519" spans="2:16" x14ac:dyDescent="0.2">
@@ -16235,7 +16589,7 @@
         <v>19</v>
       </c>
       <c r="P519" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="2:16" x14ac:dyDescent="0.2">
@@ -16258,7 +16612,7 @@
         <v>19</v>
       </c>
       <c r="P520" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="521" spans="2:16" x14ac:dyDescent="0.2">
@@ -16281,7 +16635,7 @@
         <v>19</v>
       </c>
       <c r="P521" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="2:16" x14ac:dyDescent="0.2">
@@ -16304,7 +16658,7 @@
         <v>19</v>
       </c>
       <c r="P522" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="523" spans="2:16" x14ac:dyDescent="0.2">
@@ -16327,7 +16681,7 @@
         <v>19</v>
       </c>
       <c r="P523" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="524" spans="2:16" x14ac:dyDescent="0.2">
@@ -16350,7 +16704,7 @@
         <v>19</v>
       </c>
       <c r="P524" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="525" spans="2:16" x14ac:dyDescent="0.2">
@@ -16373,7 +16727,7 @@
         <v>19</v>
       </c>
       <c r="P525" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="526" spans="2:16" x14ac:dyDescent="0.2">
@@ -16396,7 +16750,7 @@
         <v>19</v>
       </c>
       <c r="P526" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="527" spans="2:16" x14ac:dyDescent="0.2">
@@ -16419,7 +16773,7 @@
         <v>19</v>
       </c>
       <c r="P527" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="528" spans="2:16" x14ac:dyDescent="0.2">
@@ -16442,7 +16796,7 @@
         <v>19</v>
       </c>
       <c r="P528" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.2">
@@ -16465,16 +16819,16 @@
         <v>19</v>
       </c>
       <c r="P529" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530"/>
       <c r="B530" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C530" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E530" s="2">
         <v>2007</v>
@@ -16483,21 +16837,21 @@
         <v>1</v>
       </c>
       <c r="I530" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="O530" t="s">
         <v>36</v>
       </c>
       <c r="P530" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B531" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C531" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E531" s="2">
         <v>2007</v>
@@ -16506,21 +16860,21 @@
         <v>1</v>
       </c>
       <c r="I531" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="O531" t="s">
         <v>36</v>
       </c>
       <c r="P531" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B532" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C532" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E532" s="2">
         <v>2007</v>
@@ -16529,21 +16883,21 @@
         <v>1</v>
       </c>
       <c r="I532" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O532" t="s">
         <v>36</v>
       </c>
       <c r="P532" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B533" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C533" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E533" s="2">
         <v>2007</v>
@@ -16552,21 +16906,21 @@
         <v>1</v>
       </c>
       <c r="I533" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O533" t="s">
         <v>36</v>
       </c>
       <c r="P533" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B534" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C534" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E534" s="2">
         <v>2007</v>
@@ -16575,21 +16929,21 @@
         <v>1</v>
       </c>
       <c r="I534" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O534" t="s">
         <v>36</v>
       </c>
       <c r="P534" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B535" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C535" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E535" s="2">
         <v>2007</v>
@@ -16598,21 +16952,21 @@
         <v>1</v>
       </c>
       <c r="I535" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O535" t="s">
         <v>36</v>
       </c>
       <c r="P535" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C536" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E536" s="2">
         <v>2007</v>
@@ -16621,21 +16975,21 @@
         <v>1</v>
       </c>
       <c r="I536" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="O536" t="s">
         <v>36</v>
       </c>
       <c r="P536" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="537" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C537" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E537" s="2">
         <v>2007</v>
@@ -16644,21 +16998,21 @@
         <v>1</v>
       </c>
       <c r="I537" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O537" t="s">
         <v>36</v>
       </c>
       <c r="P537" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B538" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C538" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E538" s="2">
         <v>2007</v>
@@ -16667,22 +17021,22 @@
         <v>1</v>
       </c>
       <c r="I538" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O538" t="s">
         <v>36</v>
       </c>
       <c r="P538" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C539" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="2">
@@ -16693,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="I539" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
@@ -16701,15 +17055,15 @@
         <v>36</v>
       </c>
       <c r="P539" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="540" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C540" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E540" s="2">
         <v>2007</v>
@@ -16718,21 +17072,21 @@
         <v>1</v>
       </c>
       <c r="I540" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O540" t="s">
         <v>36</v>
       </c>
       <c r="P540" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B541" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C541" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E541" s="2">
         <v>2007</v>
@@ -16741,21 +17095,21 @@
         <v>1</v>
       </c>
       <c r="I541" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O541" t="s">
         <v>36</v>
       </c>
       <c r="P541" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="542" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B542" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C542" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E542" s="2">
         <v>2007</v>
@@ -16764,21 +17118,21 @@
         <v>1</v>
       </c>
       <c r="I542" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O542" t="s">
         <v>36</v>
       </c>
       <c r="P542" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="543" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B543" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C543" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E543" s="2">
         <v>2007</v>
@@ -16787,21 +17141,21 @@
         <v>1</v>
       </c>
       <c r="I543" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="O543" t="s">
         <v>36</v>
       </c>
       <c r="P543" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B544" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C544" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E544" s="2">
         <v>2007</v>
@@ -16810,21 +17164,21 @@
         <v>1</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O544" t="s">
         <v>36</v>
       </c>
       <c r="P544" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B545" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C545" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E545" s="2">
         <v>2007</v>
@@ -16833,21 +17187,21 @@
         <v>1</v>
       </c>
       <c r="I545" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O545" t="s">
         <v>36</v>
       </c>
       <c r="P545" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C546" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E546" s="2">
         <v>2007</v>
@@ -16856,21 +17210,21 @@
         <v>1</v>
       </c>
       <c r="I546" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="O546" t="s">
         <v>36</v>
       </c>
       <c r="P546" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C547" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E547" s="2">
         <v>2007</v>
@@ -16879,21 +17233,21 @@
         <v>1</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O547" t="s">
         <v>36</v>
       </c>
       <c r="P547" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B548" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C548" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E548" s="2">
         <v>2007</v>
@@ -16902,21 +17256,21 @@
         <v>1</v>
       </c>
       <c r="I548" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="O548" t="s">
         <v>36</v>
       </c>
       <c r="P548" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C549" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E549" s="2">
         <v>2007</v>
@@ -16925,22 +17279,22 @@
         <v>1</v>
       </c>
       <c r="I549" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O549" t="s">
         <v>36</v>
       </c>
       <c r="P549" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="550" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C550" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="2">
@@ -16951,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="I550" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
@@ -16959,15 +17313,15 @@
         <v>36</v>
       </c>
       <c r="P550" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C551" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E551" s="2">
         <v>2007</v>
@@ -16976,21 +17330,21 @@
         <v>1</v>
       </c>
       <c r="I551" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O551" t="s">
         <v>36</v>
       </c>
       <c r="P551" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B552" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C552" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E552" s="2">
         <v>2007</v>
@@ -16999,21 +17353,21 @@
         <v>1</v>
       </c>
       <c r="I552" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O552" t="s">
         <v>36</v>
       </c>
       <c r="P552" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B553" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C553" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E553" s="2">
         <v>2007</v>
@@ -17022,21 +17376,21 @@
         <v>1</v>
       </c>
       <c r="I553" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O553" t="s">
         <v>36</v>
       </c>
       <c r="P553" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B554" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C554" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E554" s="2">
         <v>2007</v>
@@ -17045,21 +17399,21 @@
         <v>1</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O554" t="s">
         <v>36</v>
       </c>
       <c r="P554" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B555" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C555" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E555" s="2">
         <v>2007</v>
@@ -17068,21 +17422,21 @@
         <v>1</v>
       </c>
       <c r="I555" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O555" t="s">
         <v>36</v>
       </c>
       <c r="P555" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="556" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B556" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C556" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E556" s="2">
         <v>2007</v>
@@ -17091,21 +17445,21 @@
         <v>1</v>
       </c>
       <c r="I556" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="O556" t="s">
         <v>36</v>
       </c>
       <c r="P556" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B557" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C557" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E557" s="2">
         <v>2007</v>
@@ -17114,21 +17468,21 @@
         <v>1</v>
       </c>
       <c r="I557" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="O557" t="s">
         <v>36</v>
       </c>
       <c r="P557" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B558" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C558" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E558" s="2">
         <v>2007</v>
@@ -17137,21 +17491,21 @@
         <v>1</v>
       </c>
       <c r="I558" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O558" t="s">
         <v>36</v>
       </c>
       <c r="P558" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="559" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B559" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C559" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E559" s="2">
         <v>2007</v>
@@ -17160,21 +17514,21 @@
         <v>1</v>
       </c>
       <c r="I559" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O559" t="s">
         <v>36</v>
       </c>
       <c r="P559" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C560" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E560" s="2">
         <v>2007</v>
@@ -17183,13 +17537,13 @@
         <v>1</v>
       </c>
       <c r="I560" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O560" t="s">
         <v>36</v>
       </c>
       <c r="P560" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="561" spans="1:16" x14ac:dyDescent="0.2">
@@ -17212,7 +17566,7 @@
         <v>36</v>
       </c>
       <c r="P561" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="562" spans="1:16" x14ac:dyDescent="0.2">
@@ -17235,7 +17589,7 @@
         <v>36</v>
       </c>
       <c r="P562" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.2">
@@ -17258,7 +17612,7 @@
         <v>36</v>
       </c>
       <c r="P563" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:16" x14ac:dyDescent="0.2">
@@ -17281,7 +17635,7 @@
         <v>36</v>
       </c>
       <c r="P564" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.2">
@@ -17304,7 +17658,7 @@
         <v>36</v>
       </c>
       <c r="P565" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="566" spans="1:16" x14ac:dyDescent="0.2">
@@ -17327,7 +17681,7 @@
         <v>36</v>
       </c>
       <c r="P566" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.2">
@@ -17350,7 +17704,7 @@
         <v>36</v>
       </c>
       <c r="P567" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.2">
@@ -17373,7 +17727,7 @@
         <v>36</v>
       </c>
       <c r="P568" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="569" spans="1:16" x14ac:dyDescent="0.2">
@@ -17396,7 +17750,7 @@
         <v>36</v>
       </c>
       <c r="P569" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="570" spans="1:16" x14ac:dyDescent="0.2">
@@ -17419,7 +17773,7 @@
         <v>36</v>
       </c>
       <c r="P570" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.2">
@@ -17442,15 +17796,15 @@
         <v>36</v>
       </c>
       <c r="P571" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="572" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B572" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C572" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E572" s="2">
         <v>2007</v>
@@ -17459,16 +17813,16 @@
         <v>2</v>
       </c>
       <c r="I572" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="J572" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="O572" t="s">
         <v>19</v>
       </c>
       <c r="P572" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.2">
@@ -17485,13 +17839,13 @@
         <v>1</v>
       </c>
       <c r="I573" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O573" t="s">
         <v>36</v>
       </c>
       <c r="P573" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="574" spans="1:16" x14ac:dyDescent="0.2">
@@ -17508,13 +17862,13 @@
         <v>1</v>
       </c>
       <c r="I574" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="O574" t="s">
+        <v>36</v>
+      </c>
+      <c r="P574" t="s">
         <v>606</v>
-      </c>
-      <c r="O574" t="s">
-        <v>36</v>
-      </c>
-      <c r="P574" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="575" spans="1:16" x14ac:dyDescent="0.2">
@@ -17531,13 +17885,13 @@
         <v>1</v>
       </c>
       <c r="I575" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O575" t="s">
         <v>36</v>
       </c>
       <c r="P575" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.2">
@@ -17555,13 +17909,13 @@
         <v>1</v>
       </c>
       <c r="I576" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O576" t="s">
         <v>36</v>
       </c>
       <c r="P576" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="577" spans="1:16" x14ac:dyDescent="0.2">
@@ -17578,13 +17932,13 @@
         <v>1</v>
       </c>
       <c r="I577" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="O577" t="s">
         <v>36</v>
       </c>
       <c r="P577" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="578" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -17604,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="I578" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
@@ -17612,7 +17966,7 @@
         <v>36</v>
       </c>
       <c r="P578" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="579" spans="1:16" x14ac:dyDescent="0.2">
@@ -17629,13 +17983,13 @@
         <v>1</v>
       </c>
       <c r="I579" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O579" t="s">
         <v>36</v>
       </c>
       <c r="P579" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.2">
@@ -17658,7 +18012,7 @@
         <v>36</v>
       </c>
       <c r="P580" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.2">
@@ -17681,7 +18035,7 @@
         <v>36</v>
       </c>
       <c r="P581" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="582" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -17709,7 +18063,7 @@
         <v>36</v>
       </c>
       <c r="P582" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.2">
@@ -17732,7 +18086,7 @@
         <v>36</v>
       </c>
       <c r="P583" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="584" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -17760,7 +18114,7 @@
         <v>36</v>
       </c>
       <c r="P584" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="585" spans="1:16" x14ac:dyDescent="0.2">
@@ -17783,7 +18137,7 @@
         <v>36</v>
       </c>
       <c r="P585" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="586" spans="1:16" x14ac:dyDescent="0.2">
@@ -17806,7 +18160,7 @@
         <v>36</v>
       </c>
       <c r="P586" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="587" spans="1:16" x14ac:dyDescent="0.2">
@@ -17829,7 +18183,7 @@
         <v>36</v>
       </c>
       <c r="P587" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.2">
@@ -17852,7 +18206,7 @@
         <v>36</v>
       </c>
       <c r="P588" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.2">
@@ -17875,7 +18229,7 @@
         <v>36</v>
       </c>
       <c r="P589" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="590" spans="1:16" x14ac:dyDescent="0.2">
@@ -17898,7 +18252,7 @@
         <v>36</v>
       </c>
       <c r="P590" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="591" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -17926,7 +18280,7 @@
         <v>36</v>
       </c>
       <c r="P591" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.2">
@@ -17949,7 +18303,7 @@
         <v>36</v>
       </c>
       <c r="P592" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.2">
@@ -17972,15 +18326,15 @@
         <v>36</v>
       </c>
       <c r="P593" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B594" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C594" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E594" s="2">
         <v>2007</v>
@@ -17989,13 +18343,13 @@
         <v>1</v>
       </c>
       <c r="I594" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O594" t="s">
         <v>19</v>
       </c>
       <c r="P594" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.2">
@@ -18018,7 +18372,7 @@
         <v>19</v>
       </c>
       <c r="P595" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="596" spans="1:16" x14ac:dyDescent="0.2">
@@ -18041,7 +18395,7 @@
         <v>19</v>
       </c>
       <c r="P596" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.2">
@@ -18064,7 +18418,7 @@
         <v>19</v>
       </c>
       <c r="P597" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="598" spans="1:16" x14ac:dyDescent="0.2">
@@ -18087,7 +18441,7 @@
         <v>19</v>
       </c>
       <c r="P598" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="599" spans="1:16" x14ac:dyDescent="0.2">
@@ -18110,7 +18464,7 @@
         <v>19</v>
       </c>
       <c r="P599" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.2">
@@ -18133,7 +18487,7 @@
         <v>19</v>
       </c>
       <c r="P600" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="601" spans="1:16" x14ac:dyDescent="0.2">
@@ -18156,7 +18510,7 @@
         <v>19</v>
       </c>
       <c r="P601" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="602" spans="1:16" x14ac:dyDescent="0.2">
@@ -18179,7 +18533,7 @@
         <v>19</v>
       </c>
       <c r="P602" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="603" spans="1:16" x14ac:dyDescent="0.2">
@@ -18202,7 +18556,7 @@
         <v>19</v>
       </c>
       <c r="P603" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="604" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -18230,7 +18584,7 @@
         <v>19</v>
       </c>
       <c r="P604" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="605" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -18258,7 +18612,7 @@
         <v>19</v>
       </c>
       <c r="P605" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.2">
@@ -18281,7 +18635,7 @@
         <v>19</v>
       </c>
       <c r="P606" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.2">
@@ -18304,7 +18658,7 @@
         <v>19</v>
       </c>
       <c r="P607" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.2">
@@ -18327,7 +18681,7 @@
         <v>19</v>
       </c>
       <c r="P608" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="609" spans="1:16" x14ac:dyDescent="0.2">
@@ -18344,13 +18698,13 @@
         <v>1</v>
       </c>
       <c r="I609" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="O609" t="s">
         <v>19</v>
       </c>
       <c r="P609" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="610" spans="1:16" x14ac:dyDescent="0.2">
@@ -18367,13 +18721,13 @@
         <v>1</v>
       </c>
       <c r="I610" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="O610" t="s">
+        <v>19</v>
+      </c>
+      <c r="P610" t="s">
         <v>620</v>
-      </c>
-      <c r="O610" t="s">
-        <v>19</v>
-      </c>
-      <c r="P610" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="611" spans="1:16" x14ac:dyDescent="0.2">
@@ -18390,21 +18744,21 @@
         <v>1</v>
       </c>
       <c r="I611" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O611" t="s">
         <v>19</v>
       </c>
       <c r="P611" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="612" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B612" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C612" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E612" s="2">
         <v>2007</v>
@@ -18413,13 +18767,13 @@
         <v>1</v>
       </c>
       <c r="I612" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O612" t="s">
         <v>19</v>
       </c>
       <c r="P612" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="613" spans="1:16" x14ac:dyDescent="0.2">
@@ -18442,7 +18796,7 @@
         <v>36</v>
       </c>
       <c r="P613" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="614" spans="1:16" x14ac:dyDescent="0.2">
@@ -18465,7 +18819,7 @@
         <v>36</v>
       </c>
       <c r="P614" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="615" spans="1:16" x14ac:dyDescent="0.2">
@@ -18488,7 +18842,7 @@
         <v>36</v>
       </c>
       <c r="P615" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="616" spans="1:16" x14ac:dyDescent="0.2">
@@ -18511,7 +18865,7 @@
         <v>36</v>
       </c>
       <c r="P616" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="617" spans="1:16" x14ac:dyDescent="0.2">
@@ -18534,7 +18888,7 @@
         <v>36</v>
       </c>
       <c r="P617" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="618" spans="1:16" x14ac:dyDescent="0.2">
@@ -18557,7 +18911,7 @@
         <v>36</v>
       </c>
       <c r="P618" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="619" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -18586,7 +18940,7 @@
         <v>36</v>
       </c>
       <c r="P619" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="620" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -18615,7 +18969,7 @@
         <v>36</v>
       </c>
       <c r="P620" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="621" spans="1:16" x14ac:dyDescent="0.2">
@@ -18638,7 +18992,7 @@
         <v>36</v>
       </c>
       <c r="P621" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="622" spans="1:16" x14ac:dyDescent="0.2">
@@ -18661,7 +19015,7 @@
         <v>36</v>
       </c>
       <c r="P622" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="623" spans="1:16" x14ac:dyDescent="0.2">
@@ -18684,7 +19038,7 @@
         <v>36</v>
       </c>
       <c r="P623" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="624" spans="1:16" x14ac:dyDescent="0.2">
@@ -18701,13 +19055,13 @@
         <v>1</v>
       </c>
       <c r="I624" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O624" t="s">
         <v>36</v>
       </c>
       <c r="P624" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="625" spans="1:16" x14ac:dyDescent="0.2">
@@ -18730,7 +19084,7 @@
         <v>36</v>
       </c>
       <c r="P625" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="626" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -18759,7 +19113,7 @@
         <v>36</v>
       </c>
       <c r="P626" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="627" spans="1:16" x14ac:dyDescent="0.2">
@@ -18782,7 +19136,7 @@
         <v>36</v>
       </c>
       <c r="P627" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="628" spans="1:16" x14ac:dyDescent="0.2">
@@ -18805,7 +19159,7 @@
         <v>36</v>
       </c>
       <c r="P628" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="629" spans="1:16" x14ac:dyDescent="0.2">
@@ -18828,7 +19182,7 @@
         <v>36</v>
       </c>
       <c r="P629" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="630" spans="1:16" x14ac:dyDescent="0.2">
@@ -18851,7 +19205,7 @@
         <v>36</v>
       </c>
       <c r="P630" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="631" spans="1:16" x14ac:dyDescent="0.2">
@@ -18874,7 +19228,7 @@
         <v>36</v>
       </c>
       <c r="P631" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="632" spans="1:16" x14ac:dyDescent="0.2">
@@ -18897,7 +19251,7 @@
         <v>36</v>
       </c>
       <c r="P632" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="633" spans="1:16" x14ac:dyDescent="0.2">
@@ -18920,7 +19274,7 @@
         <v>36</v>
       </c>
       <c r="P633" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="634" spans="1:16" x14ac:dyDescent="0.2">
@@ -18943,7 +19297,7 @@
         <v>36</v>
       </c>
       <c r="P634" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="635" spans="1:16" x14ac:dyDescent="0.2">
@@ -18966,7 +19320,7 @@
         <v>36</v>
       </c>
       <c r="P635" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="636" spans="1:16" x14ac:dyDescent="0.2">
@@ -18989,7 +19343,7 @@
         <v>36</v>
       </c>
       <c r="P636" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="637" spans="1:16" x14ac:dyDescent="0.2">
@@ -19012,7 +19366,7 @@
         <v>36</v>
       </c>
       <c r="P637" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="638" spans="1:16" x14ac:dyDescent="0.2">
@@ -19035,7 +19389,7 @@
         <v>36</v>
       </c>
       <c r="P638" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="639" spans="1:16" x14ac:dyDescent="0.2">
@@ -19058,7 +19412,7 @@
         <v>36</v>
       </c>
       <c r="P639" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="640" spans="1:16" x14ac:dyDescent="0.2">
@@ -19081,7 +19435,7 @@
         <v>36</v>
       </c>
       <c r="P640" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="641" spans="1:16" x14ac:dyDescent="0.2">
@@ -19104,7 +19458,7 @@
         <v>36</v>
       </c>
       <c r="P641" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="642" spans="1:16" x14ac:dyDescent="0.2">
@@ -19127,7 +19481,7 @@
         <v>36</v>
       </c>
       <c r="P642" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="643" spans="1:16" x14ac:dyDescent="0.2">
@@ -19150,7 +19504,7 @@
         <v>36</v>
       </c>
       <c r="P643" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="644" spans="1:16" x14ac:dyDescent="0.2">
@@ -19173,16 +19527,16 @@
         <v>36</v>
       </c>
       <c r="P644" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="645" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A645"/>
       <c r="B645" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C645" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E645" s="2">
         <v>2008</v>
@@ -19191,21 +19545,21 @@
         <v>1</v>
       </c>
       <c r="I645" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O645" t="s">
         <v>36</v>
       </c>
       <c r="P645" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="646" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B646" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C646" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E646" s="2">
         <v>2008</v>
@@ -19214,21 +19568,21 @@
         <v>1</v>
       </c>
       <c r="I646" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O646" t="s">
         <v>36</v>
       </c>
       <c r="P646" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="647" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B647" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C647" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E647" s="2">
         <v>2008</v>
@@ -19237,21 +19591,21 @@
         <v>1</v>
       </c>
       <c r="I647" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="O647" t="s">
         <v>36</v>
       </c>
       <c r="P647" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="648" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B648" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C648" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E648" s="2">
         <v>2008</v>
@@ -19260,21 +19614,21 @@
         <v>1</v>
       </c>
       <c r="I648" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O648" t="s">
         <v>36</v>
       </c>
       <c r="P648" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="649" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B649" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C649" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E649" s="2">
         <v>2008</v>
@@ -19283,21 +19637,21 @@
         <v>1</v>
       </c>
       <c r="I649" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O649" t="s">
         <v>36</v>
       </c>
       <c r="P649" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="650" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B650" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C650" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E650" s="2">
         <v>2008</v>
@@ -19306,21 +19660,21 @@
         <v>1</v>
       </c>
       <c r="I650" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O650" t="s">
         <v>36</v>
       </c>
       <c r="P650" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="651" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B651" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C651" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E651" s="2">
         <v>2008</v>
@@ -19329,21 +19683,21 @@
         <v>1</v>
       </c>
       <c r="I651" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O651" t="s">
         <v>36</v>
       </c>
       <c r="P651" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="652" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B652" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C652" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E652" s="2">
         <v>2008</v>
@@ -19352,21 +19706,21 @@
         <v>1</v>
       </c>
       <c r="I652" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O652" t="s">
         <v>36</v>
       </c>
       <c r="P652" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="653" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B653" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C653" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E653" s="2">
         <v>2008</v>
@@ -19375,21 +19729,21 @@
         <v>1</v>
       </c>
       <c r="I653" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O653" t="s">
         <v>36</v>
       </c>
       <c r="P653" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="654" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B654" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C654" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E654" s="2">
         <v>2008</v>
@@ -19398,21 +19752,21 @@
         <v>1</v>
       </c>
       <c r="I654" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O654" t="s">
         <v>36</v>
       </c>
       <c r="P654" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="655" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B655" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C655" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E655" s="2">
         <v>2008</v>
@@ -19421,21 +19775,21 @@
         <v>1</v>
       </c>
       <c r="I655" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O655" t="s">
         <v>36</v>
       </c>
       <c r="P655" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="656" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B656" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C656" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E656" s="2">
         <v>2008</v>
@@ -19444,21 +19798,21 @@
         <v>1</v>
       </c>
       <c r="I656" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="O656" t="s">
         <v>36</v>
       </c>
       <c r="P656" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="657" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B657" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C657" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E657" s="2">
         <v>2008</v>
@@ -19467,21 +19821,21 @@
         <v>1</v>
       </c>
       <c r="I657" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O657" t="s">
         <v>36</v>
       </c>
       <c r="P657" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="658" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B658" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C658" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E658" s="2">
         <v>2008</v>
@@ -19490,13 +19844,13 @@
         <v>1</v>
       </c>
       <c r="I658" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O658" t="s">
         <v>36</v>
       </c>
       <c r="P658" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="659" spans="1:16" x14ac:dyDescent="0.2">
@@ -19519,7 +19873,7 @@
         <v>36</v>
       </c>
       <c r="P659" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="660" spans="1:16" x14ac:dyDescent="0.2">
@@ -19542,7 +19896,7 @@
         <v>36</v>
       </c>
       <c r="P660" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="661" spans="1:16" x14ac:dyDescent="0.2">
@@ -19565,7 +19919,7 @@
         <v>36</v>
       </c>
       <c r="P661" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="662" spans="1:16" x14ac:dyDescent="0.2">
@@ -19588,7 +19942,7 @@
         <v>36</v>
       </c>
       <c r="P662" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="663" spans="1:16" x14ac:dyDescent="0.2">
@@ -19611,7 +19965,7 @@
         <v>36</v>
       </c>
       <c r="P663" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="664" spans="1:16" x14ac:dyDescent="0.2">
@@ -19635,7 +19989,7 @@
         <v>36</v>
       </c>
       <c r="P664" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="665" spans="1:16" x14ac:dyDescent="0.2">
@@ -19658,7 +20012,7 @@
         <v>36</v>
       </c>
       <c r="P665" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="666" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -19687,7 +20041,7 @@
         <v>36</v>
       </c>
       <c r="P666" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="667" spans="1:16" x14ac:dyDescent="0.2">
@@ -19710,7 +20064,7 @@
         <v>36</v>
       </c>
       <c r="P667" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="668" spans="1:16" x14ac:dyDescent="0.2">
@@ -19733,7 +20087,7 @@
         <v>36</v>
       </c>
       <c r="P668" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="669" spans="1:16" x14ac:dyDescent="0.2">
@@ -19757,7 +20111,7 @@
         <v>36</v>
       </c>
       <c r="P669" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="670" spans="1:16" x14ac:dyDescent="0.2">
@@ -19780,15 +20134,15 @@
         <v>36</v>
       </c>
       <c r="P670" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="671" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B671" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C671" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E671" s="2">
         <v>2008</v>
@@ -19797,21 +20151,21 @@
         <v>1</v>
       </c>
       <c r="I671" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O671" t="s">
         <v>19</v>
       </c>
       <c r="P671" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="672" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B672" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C672" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E672" s="2">
         <v>2008</v>
@@ -19820,22 +20174,22 @@
         <v>1</v>
       </c>
       <c r="I672" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O672" t="s">
         <v>19</v>
       </c>
       <c r="P672" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="673" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C673" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" s="2">
@@ -19855,15 +20209,15 @@
         <v>19</v>
       </c>
       <c r="P673" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="674" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B674" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C674" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E674" s="2">
         <v>2008</v>
@@ -19872,21 +20226,21 @@
         <v>1</v>
       </c>
       <c r="I674" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="O674" t="s">
         <v>19</v>
       </c>
       <c r="P674" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="675" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B675" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C675" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E675" s="2">
         <v>2008</v>
@@ -19895,21 +20249,21 @@
         <v>1</v>
       </c>
       <c r="I675" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="O675" t="s">
         <v>19</v>
       </c>
       <c r="P675" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="676" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B676" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C676" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E676" s="2">
         <v>2008</v>
@@ -19918,21 +20272,21 @@
         <v>1</v>
       </c>
       <c r="I676" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="O676" t="s">
         <v>19</v>
       </c>
       <c r="P676" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="677" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B677" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C677" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E677" s="2">
         <v>2008</v>
@@ -19941,22 +20295,22 @@
         <v>1</v>
       </c>
       <c r="I677" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O677" t="s">
         <v>19</v>
       </c>
       <c r="P677" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="678" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C678" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" s="2">
@@ -19968,7 +20322,7 @@
         <v>1</v>
       </c>
       <c r="I678" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
@@ -19976,15 +20330,15 @@
         <v>19</v>
       </c>
       <c r="P678" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="679" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B679" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C679" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E679" s="2">
         <v>2008</v>
@@ -19993,21 +20347,21 @@
         <v>1</v>
       </c>
       <c r="I679" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O679" t="s">
         <v>19</v>
       </c>
       <c r="P679" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="680" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B680" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C680" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E680" s="2">
         <v>2008</v>
@@ -20022,15 +20376,15 @@
         <v>19</v>
       </c>
       <c r="P680" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="681" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B681" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C681" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E681" s="2">
         <v>2008</v>
@@ -20039,21 +20393,21 @@
         <v>1</v>
       </c>
       <c r="I681" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O681" t="s">
         <v>19</v>
       </c>
       <c r="P681" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="682" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B682" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C682" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E682" s="2">
         <v>2008</v>
@@ -20062,21 +20416,21 @@
         <v>1</v>
       </c>
       <c r="I682" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O682" t="s">
         <v>19</v>
       </c>
       <c r="P682" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="683" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B683" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C683" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E683" s="2">
         <v>2008</v>
@@ -20085,13 +20439,13 @@
         <v>1</v>
       </c>
       <c r="I683" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O683" t="s">
         <v>19</v>
       </c>
       <c r="P683" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="684" spans="1:16" x14ac:dyDescent="0.2">
@@ -20117,7 +20471,7 @@
         <v>36</v>
       </c>
       <c r="P684" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="685" spans="1:16" x14ac:dyDescent="0.2">
@@ -20137,13 +20491,13 @@
         <v>311</v>
       </c>
       <c r="J685" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="O685" t="s">
         <v>36</v>
       </c>
       <c r="P685" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="686" spans="1:16" x14ac:dyDescent="0.2">
@@ -20163,13 +20517,13 @@
         <v>311</v>
       </c>
       <c r="J686" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="O686" t="s">
+        <v>36</v>
+      </c>
+      <c r="P686" t="s">
         <v>660</v>
-      </c>
-      <c r="O686" t="s">
-        <v>36</v>
-      </c>
-      <c r="P686" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="687" spans="1:16" x14ac:dyDescent="0.2">
@@ -20189,13 +20543,13 @@
         <v>311</v>
       </c>
       <c r="J687" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O687" t="s">
         <v>36</v>
       </c>
       <c r="P687" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="688" spans="1:16" x14ac:dyDescent="0.2">
@@ -20221,7 +20575,7 @@
         <v>36</v>
       </c>
       <c r="P688" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="689" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
@@ -20252,7 +20606,7 @@
         <v>36</v>
       </c>
       <c r="P689" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="690" spans="1:16" x14ac:dyDescent="0.2">
@@ -20278,7 +20632,7 @@
         <v>36</v>
       </c>
       <c r="P690" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="691" spans="1:16" x14ac:dyDescent="0.2">
@@ -20298,13 +20652,13 @@
         <v>287</v>
       </c>
       <c r="J691" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="O691" t="s">
         <v>36</v>
       </c>
       <c r="P691" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="692" spans="1:16" x14ac:dyDescent="0.2">
@@ -20330,15 +20684,15 @@
         <v>36</v>
       </c>
       <c r="P692" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="693" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B693" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C693" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E693" s="2">
         <v>2008</v>
@@ -20347,21 +20701,21 @@
         <v>1</v>
       </c>
       <c r="I693" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O693" t="s">
         <v>19</v>
       </c>
       <c r="P693" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="694" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B694" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C694" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E694" s="2">
         <v>2008</v>
@@ -20370,21 +20724,21 @@
         <v>1</v>
       </c>
       <c r="I694" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O694" t="s">
         <v>36</v>
       </c>
       <c r="P694" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="695" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B695" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C695" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E695" s="2">
         <v>2008</v>
@@ -20393,21 +20747,21 @@
         <v>1</v>
       </c>
       <c r="I695" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O695" t="s">
         <v>36</v>
       </c>
       <c r="P695" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="696" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B696" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C696" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E696" s="2">
         <v>2008</v>
@@ -20416,21 +20770,21 @@
         <v>1</v>
       </c>
       <c r="I696" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O696" t="s">
         <v>36</v>
       </c>
       <c r="P696" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="697" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B697" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C697" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E697" s="2">
         <v>2008</v>
@@ -20439,22 +20793,22 @@
         <v>1</v>
       </c>
       <c r="I697" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O697" t="s">
         <v>36</v>
       </c>
       <c r="P697" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="698" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C698" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" s="2">
@@ -20465,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="I698" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K698" s="2"/>
       <c r="L698" s="2"/>
@@ -20473,15 +20827,15 @@
         <v>36</v>
       </c>
       <c r="P698" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="699" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B699" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C699" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E699" s="2">
         <v>2008</v>
@@ -20490,21 +20844,21 @@
         <v>1</v>
       </c>
       <c r="I699" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="O699" t="s">
         <v>36</v>
       </c>
       <c r="P699" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="700" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B700" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C700" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E700" s="2">
         <v>2008</v>
@@ -20513,21 +20867,21 @@
         <v>1</v>
       </c>
       <c r="I700" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O700" t="s">
         <v>36</v>
       </c>
       <c r="P700" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="701" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B701" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C701" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E701" s="2">
         <v>2008</v>
@@ -20536,21 +20890,21 @@
         <v>1</v>
       </c>
       <c r="I701" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="O701" t="s">
         <v>36</v>
       </c>
       <c r="P701" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="702" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B702" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C702" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E702" s="2">
         <v>2008</v>
@@ -20559,21 +20913,21 @@
         <v>1</v>
       </c>
       <c r="I702" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O702" t="s">
         <v>36</v>
       </c>
       <c r="P702" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="703" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B703" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C703" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E703" s="2">
         <v>2008</v>
@@ -20582,22 +20936,22 @@
         <v>1</v>
       </c>
       <c r="I703" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="O703" t="s">
         <v>36</v>
       </c>
       <c r="P703" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="704" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C704" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E704" s="2">
         <v>2008</v>
@@ -20607,10 +20961,10 @@
         <v>1</v>
       </c>
       <c r="I704" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J704" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K704" s="2"/>
       <c r="L704" s="2"/>
@@ -20618,15 +20972,15 @@
         <v>19</v>
       </c>
       <c r="P704" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="705" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B705" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C705" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D705"/>
       <c r="E705" s="2">
@@ -20636,37 +20990,3538 @@
         <v>1</v>
       </c>
       <c r="I705" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="J705" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="O705" t="s">
         <v>19</v>
       </c>
       <c r="P705" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="706" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C706"/>
+      <c r="B706" t="s">
+        <v>602</v>
+      </c>
+      <c r="C706" t="s">
+        <v>603</v>
+      </c>
+      <c r="E706" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H706" s="2">
+        <v>1</v>
+      </c>
+      <c r="I706" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="O706" t="s">
+        <v>19</v>
+      </c>
+      <c r="P706" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="707" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B707" t="s">
+        <v>602</v>
+      </c>
+      <c r="C707" t="s">
+        <v>603</v>
+      </c>
+      <c r="E707" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H707" s="2">
+        <v>1</v>
+      </c>
+      <c r="I707" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="O707" t="s">
+        <v>19</v>
+      </c>
+      <c r="P707" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="708" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
+      <c r="B708" t="s">
+        <v>602</v>
+      </c>
+      <c r="C708" t="s">
+        <v>603</v>
+      </c>
+      <c r="D708" s="2"/>
+      <c r="E708" s="2">
+        <v>2008</v>
+      </c>
       <c r="G708" s="2"/>
+      <c r="H708" s="2">
+        <v>1</v>
+      </c>
+      <c r="I708" s="2" t="s">
+        <v>680</v>
+      </c>
       <c r="K708" s="2"/>
       <c r="L708" s="2"/>
-      <c r="O708" s="2"/>
+      <c r="O708" t="s">
+        <v>19</v>
+      </c>
+      <c r="P708" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="709" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B709" t="s">
+        <v>602</v>
+      </c>
+      <c r="C709" t="s">
+        <v>603</v>
+      </c>
+      <c r="E709" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H709" s="2">
+        <v>1</v>
+      </c>
+      <c r="I709" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="O709" t="s">
+        <v>19</v>
+      </c>
+      <c r="P709" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="710" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B710" t="s">
+        <v>602</v>
+      </c>
+      <c r="C710" t="s">
+        <v>603</v>
+      </c>
+      <c r="E710" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H710" s="2">
+        <v>1</v>
+      </c>
+      <c r="I710" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="O710" t="s">
+        <v>19</v>
+      </c>
+      <c r="P710" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="711" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B711" t="s">
+        <v>684</v>
+      </c>
+      <c r="C711" t="s">
+        <v>685</v>
+      </c>
+      <c r="E711" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H711" s="2">
+        <v>1</v>
+      </c>
+      <c r="I711" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="O711" t="s">
+        <v>19</v>
+      </c>
+      <c r="P711" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="712" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B712" t="s">
+        <v>602</v>
+      </c>
+      <c r="C712" t="s">
+        <v>603</v>
+      </c>
+      <c r="E712" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H712" s="2">
+        <v>1</v>
+      </c>
+      <c r="I712" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="O712" t="s">
+        <v>19</v>
+      </c>
+      <c r="P712" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="713" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B713" t="s">
+        <v>688</v>
+      </c>
+      <c r="C713" t="s">
+        <v>689</v>
+      </c>
+      <c r="E713" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H713" s="2">
+        <v>1</v>
+      </c>
+      <c r="I713" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="O713" t="s">
+        <v>19</v>
+      </c>
+      <c r="P713" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="714" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I714"/>
-    </row>
-    <row r="720" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="2"/>
-      <c r="G720" s="2"/>
-      <c r="K720" s="2"/>
-      <c r="L720" s="2"/>
-      <c r="O720" s="2"/>
+      <c r="B714" t="s">
+        <v>688</v>
+      </c>
+      <c r="C714" t="s">
+        <v>689</v>
+      </c>
+      <c r="E714" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H714" s="2">
+        <v>1</v>
+      </c>
+      <c r="I714" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="O714" t="s">
+        <v>19</v>
+      </c>
+      <c r="P714" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="715" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B715" t="s">
+        <v>693</v>
+      </c>
+      <c r="C715" t="s">
+        <v>694</v>
+      </c>
+      <c r="E715" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H715" s="2">
+        <v>1</v>
+      </c>
+      <c r="I715" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="O715" t="s">
+        <v>36</v>
+      </c>
+      <c r="P715" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B716" t="s">
+        <v>693</v>
+      </c>
+      <c r="C716" t="s">
+        <v>694</v>
+      </c>
+      <c r="E716" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H716" s="2">
+        <v>1</v>
+      </c>
+      <c r="I716" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="O716" t="s">
+        <v>36</v>
+      </c>
+      <c r="P716" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B717" t="s">
+        <v>693</v>
+      </c>
+      <c r="C717" t="s">
+        <v>694</v>
+      </c>
+      <c r="E717" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H717" s="2">
+        <v>1</v>
+      </c>
+      <c r="I717" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="O717" t="s">
+        <v>36</v>
+      </c>
+      <c r="P717" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="B718" t="s">
+        <v>693</v>
+      </c>
+      <c r="C718" t="s">
+        <v>694</v>
+      </c>
+      <c r="E718" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H718" s="2">
+        <v>1</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="O718" t="s">
+        <v>36</v>
+      </c>
+      <c r="P718" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B719" t="s">
+        <v>693</v>
+      </c>
+      <c r="C719" t="s">
+        <v>694</v>
+      </c>
+      <c r="E719" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H719" s="2">
+        <v>1</v>
+      </c>
+      <c r="I719" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="O719" t="s">
+        <v>36</v>
+      </c>
+      <c r="P719" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B720" t="s">
+        <v>693</v>
+      </c>
+      <c r="C720" t="s">
+        <v>694</v>
+      </c>
+      <c r="E720" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H720" s="2">
+        <v>1</v>
+      </c>
+      <c r="I720" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="O720" t="s">
+        <v>36</v>
+      </c>
+      <c r="P720" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="721" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="2"/>
+      <c r="B721" t="s">
+        <v>702</v>
+      </c>
+      <c r="C721" t="s">
+        <v>703</v>
+      </c>
+      <c r="E721" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G721" s="2"/>
+      <c r="H721" s="2">
+        <v>1</v>
+      </c>
+      <c r="I721" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="K721" s="2"/>
+      <c r="L721" s="2"/>
+      <c r="O721" t="s">
+        <v>36</v>
+      </c>
+      <c r="P721" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B722" t="s">
+        <v>702</v>
+      </c>
+      <c r="C722" t="s">
+        <v>703</v>
+      </c>
+      <c r="D722"/>
+      <c r="E722" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H722" s="2">
+        <v>1</v>
+      </c>
+      <c r="I722" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="O722" t="s">
+        <v>36</v>
+      </c>
+      <c r="P722" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="2"/>
+      <c r="B723" t="s">
+        <v>702</v>
+      </c>
+      <c r="C723" t="s">
+        <v>703</v>
+      </c>
+      <c r="E723" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G723" s="2"/>
+      <c r="H723" s="2">
+        <v>1</v>
+      </c>
+      <c r="I723" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="K723" s="2"/>
+      <c r="L723" s="2"/>
+      <c r="O723" t="s">
+        <v>36</v>
+      </c>
+      <c r="P723" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B724" t="s">
+        <v>702</v>
+      </c>
+      <c r="C724" t="s">
+        <v>703</v>
+      </c>
+      <c r="D724"/>
+      <c r="E724" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H724" s="2">
+        <v>1</v>
+      </c>
+      <c r="I724" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="O724" t="s">
+        <v>36</v>
+      </c>
+      <c r="P724" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B725" t="s">
+        <v>702</v>
+      </c>
+      <c r="C725" t="s">
+        <v>703</v>
+      </c>
+      <c r="D725"/>
+      <c r="E725" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H725" s="2">
+        <v>1</v>
+      </c>
+      <c r="I725" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="O725" t="s">
+        <v>36</v>
+      </c>
+      <c r="P725" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="726" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B726" t="s">
+        <v>702</v>
+      </c>
+      <c r="C726" t="s">
+        <v>703</v>
+      </c>
+      <c r="D726"/>
+      <c r="E726" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H726" s="2">
+        <v>1</v>
+      </c>
+      <c r="I726" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="O726" t="s">
+        <v>36</v>
+      </c>
+      <c r="P726" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="727" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A727" s="2"/>
+      <c r="B727" t="s">
+        <v>702</v>
+      </c>
+      <c r="C727" t="s">
+        <v>703</v>
+      </c>
+      <c r="E727" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G727" s="2"/>
+      <c r="H727" s="2">
+        <v>1</v>
+      </c>
+      <c r="I727" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="K727" s="2"/>
+      <c r="L727" s="2"/>
+      <c r="O727" t="s">
+        <v>36</v>
+      </c>
+      <c r="P727" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="728" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B728" t="s">
+        <v>702</v>
+      </c>
+      <c r="C728" t="s">
+        <v>703</v>
+      </c>
+      <c r="D728"/>
+      <c r="E728" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H728" s="2">
+        <v>1</v>
+      </c>
+      <c r="I728" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="O728" t="s">
+        <v>36</v>
+      </c>
+      <c r="P728" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B729" t="s">
+        <v>702</v>
+      </c>
+      <c r="C729" t="s">
+        <v>703</v>
+      </c>
+      <c r="D729"/>
+      <c r="E729" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H729" s="2">
+        <v>1</v>
+      </c>
+      <c r="I729" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="O729" t="s">
+        <v>36</v>
+      </c>
+      <c r="P729" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B730" t="s">
+        <v>702</v>
+      </c>
+      <c r="C730" t="s">
+        <v>703</v>
+      </c>
+      <c r="D730"/>
+      <c r="E730" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H730" s="2">
+        <v>1</v>
+      </c>
+      <c r="I730" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="O730" t="s">
+        <v>36</v>
+      </c>
+      <c r="P730" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A731" s="2"/>
+      <c r="B731" t="s">
+        <v>58</v>
+      </c>
+      <c r="C731" t="s">
+        <v>59</v>
+      </c>
+      <c r="E731" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G731" s="2"/>
+      <c r="H731" s="2">
+        <v>2</v>
+      </c>
+      <c r="I731" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J731" t="s">
+        <v>71</v>
+      </c>
+      <c r="K731" s="2"/>
+      <c r="L731" s="2"/>
+      <c r="O731" t="s">
+        <v>19</v>
+      </c>
+      <c r="P731" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B732" t="s">
+        <v>95</v>
+      </c>
+      <c r="C732" t="s">
+        <v>96</v>
+      </c>
+      <c r="E732" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H732" s="2">
+        <v>1</v>
+      </c>
+      <c r="I732" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O732" t="s">
+        <v>36</v>
+      </c>
+      <c r="P732" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B733" t="s">
+        <v>95</v>
+      </c>
+      <c r="C733" t="s">
+        <v>96</v>
+      </c>
+      <c r="E733" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H733" s="2">
+        <v>1</v>
+      </c>
+      <c r="I733" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O733" t="s">
+        <v>36</v>
+      </c>
+      <c r="P733" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B734" t="s">
+        <v>95</v>
+      </c>
+      <c r="C734" t="s">
+        <v>96</v>
+      </c>
+      <c r="E734" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H734" s="2">
+        <v>1</v>
+      </c>
+      <c r="I734" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O734" t="s">
+        <v>36</v>
+      </c>
+      <c r="P734" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B735" t="s">
+        <v>95</v>
+      </c>
+      <c r="C735" t="s">
+        <v>96</v>
+      </c>
+      <c r="E735" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H735" s="2">
+        <v>1</v>
+      </c>
+      <c r="I735" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O735" t="s">
+        <v>36</v>
+      </c>
+      <c r="P735" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B736" t="s">
+        <v>95</v>
+      </c>
+      <c r="C736" t="s">
+        <v>96</v>
+      </c>
+      <c r="E736" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H736" s="2">
+        <v>1</v>
+      </c>
+      <c r="I736" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O736" t="s">
+        <v>36</v>
+      </c>
+      <c r="P736" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B737" t="s">
+        <v>95</v>
+      </c>
+      <c r="C737" t="s">
+        <v>96</v>
+      </c>
+      <c r="E737" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H737" s="2">
+        <v>1</v>
+      </c>
+      <c r="I737" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O737" t="s">
+        <v>36</v>
+      </c>
+      <c r="P737" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B738" t="s">
+        <v>95</v>
+      </c>
+      <c r="C738" t="s">
+        <v>96</v>
+      </c>
+      <c r="E738" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H738" s="2">
+        <v>1</v>
+      </c>
+      <c r="I738" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O738" t="s">
+        <v>36</v>
+      </c>
+      <c r="P738" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B739" t="s">
+        <v>95</v>
+      </c>
+      <c r="C739" t="s">
+        <v>96</v>
+      </c>
+      <c r="E739" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H739" s="2">
+        <v>1</v>
+      </c>
+      <c r="I739" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O739" t="s">
+        <v>36</v>
+      </c>
+      <c r="P739" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B740" t="s">
+        <v>95</v>
+      </c>
+      <c r="C740" t="s">
+        <v>96</v>
+      </c>
+      <c r="E740" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H740" s="2">
+        <v>1</v>
+      </c>
+      <c r="I740" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O740" t="s">
+        <v>36</v>
+      </c>
+      <c r="P740" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B741" t="s">
+        <v>95</v>
+      </c>
+      <c r="C741" t="s">
+        <v>96</v>
+      </c>
+      <c r="E741" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H741" s="2">
+        <v>1</v>
+      </c>
+      <c r="I741" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="O741" t="s">
+        <v>36</v>
+      </c>
+      <c r="P741" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B742" t="s">
+        <v>95</v>
+      </c>
+      <c r="C742" t="s">
+        <v>96</v>
+      </c>
+      <c r="E742" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H742" s="2">
+        <v>1</v>
+      </c>
+      <c r="I742" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="O742" t="s">
+        <v>36</v>
+      </c>
+      <c r="P742" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B743" t="s">
+        <v>95</v>
+      </c>
+      <c r="C743" t="s">
+        <v>96</v>
+      </c>
+      <c r="E743" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H743" s="2">
+        <v>1</v>
+      </c>
+      <c r="I743" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O743" t="s">
+        <v>36</v>
+      </c>
+      <c r="P743" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="2"/>
+      <c r="B744" t="s">
+        <v>95</v>
+      </c>
+      <c r="C744" t="s">
+        <v>96</v>
+      </c>
+      <c r="D744" s="2"/>
+      <c r="E744" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G744" s="2"/>
+      <c r="H744" s="2">
+        <v>1</v>
+      </c>
+      <c r="I744" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K744" s="2"/>
+      <c r="L744" s="2"/>
+      <c r="O744" t="s">
+        <v>36</v>
+      </c>
+      <c r="P744" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B745" t="s">
+        <v>95</v>
+      </c>
+      <c r="C745" t="s">
+        <v>96</v>
+      </c>
+      <c r="E745" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H745" s="2">
+        <v>1</v>
+      </c>
+      <c r="I745" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O745" t="s">
+        <v>36</v>
+      </c>
+      <c r="P745" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="2"/>
+      <c r="B746" t="s">
+        <v>179</v>
+      </c>
+      <c r="C746" t="s">
+        <v>180</v>
+      </c>
+      <c r="E746" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G746" s="2"/>
+      <c r="H746" s="2">
+        <v>1</v>
+      </c>
+      <c r="I746" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K746" s="2"/>
+      <c r="L746" s="2"/>
+      <c r="O746" t="s">
+        <v>36</v>
+      </c>
+      <c r="P746" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B747" t="s">
+        <v>179</v>
+      </c>
+      <c r="C747" t="s">
+        <v>180</v>
+      </c>
+      <c r="D747"/>
+      <c r="E747" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H747" s="2">
+        <v>1</v>
+      </c>
+      <c r="I747" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O747" t="s">
+        <v>36</v>
+      </c>
+      <c r="P747" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B748" t="s">
+        <v>179</v>
+      </c>
+      <c r="C748" t="s">
+        <v>180</v>
+      </c>
+      <c r="D748"/>
+      <c r="E748" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H748" s="2">
+        <v>1</v>
+      </c>
+      <c r="I748" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O748" t="s">
+        <v>36</v>
+      </c>
+      <c r="P748" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B749" t="s">
+        <v>179</v>
+      </c>
+      <c r="C749" t="s">
+        <v>180</v>
+      </c>
+      <c r="D749"/>
+      <c r="E749" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H749" s="2">
+        <v>1</v>
+      </c>
+      <c r="I749" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O749" t="s">
+        <v>36</v>
+      </c>
+      <c r="P749" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B750" t="s">
+        <v>179</v>
+      </c>
+      <c r="C750" t="s">
+        <v>180</v>
+      </c>
+      <c r="D750"/>
+      <c r="E750" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H750" s="2">
+        <v>1</v>
+      </c>
+      <c r="I750" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O750" t="s">
+        <v>36</v>
+      </c>
+      <c r="P750" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B751" t="s">
+        <v>179</v>
+      </c>
+      <c r="C751" t="s">
+        <v>180</v>
+      </c>
+      <c r="D751"/>
+      <c r="E751" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H751" s="2">
+        <v>1</v>
+      </c>
+      <c r="I751" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O751" t="s">
+        <v>36</v>
+      </c>
+      <c r="P751" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B752" t="s">
+        <v>179</v>
+      </c>
+      <c r="C752" t="s">
+        <v>180</v>
+      </c>
+      <c r="D752"/>
+      <c r="E752" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H752" s="2">
+        <v>1</v>
+      </c>
+      <c r="I752" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O752" t="s">
+        <v>36</v>
+      </c>
+      <c r="P752" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B753" t="s">
+        <v>179</v>
+      </c>
+      <c r="C753" t="s">
+        <v>180</v>
+      </c>
+      <c r="D753"/>
+      <c r="E753" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H753" s="2">
+        <v>1</v>
+      </c>
+      <c r="I753" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O753" t="s">
+        <v>36</v>
+      </c>
+      <c r="P753" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B754" t="s">
+        <v>179</v>
+      </c>
+      <c r="C754" t="s">
+        <v>180</v>
+      </c>
+      <c r="D754"/>
+      <c r="E754" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H754" s="2">
+        <v>1</v>
+      </c>
+      <c r="I754" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O754" t="s">
+        <v>36</v>
+      </c>
+      <c r="P754" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B755" t="s">
+        <v>179</v>
+      </c>
+      <c r="C755" t="s">
+        <v>180</v>
+      </c>
+      <c r="D755"/>
+      <c r="E755" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H755" s="2">
+        <v>1</v>
+      </c>
+      <c r="I755" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O755" t="s">
+        <v>36</v>
+      </c>
+      <c r="P755" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B756" t="s">
+        <v>179</v>
+      </c>
+      <c r="C756" t="s">
+        <v>180</v>
+      </c>
+      <c r="D756"/>
+      <c r="E756" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H756" s="2">
+        <v>1</v>
+      </c>
+      <c r="I756" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O756" t="s">
+        <v>36</v>
+      </c>
+      <c r="P756" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B757" t="s">
+        <v>179</v>
+      </c>
+      <c r="C757" t="s">
+        <v>180</v>
+      </c>
+      <c r="D757"/>
+      <c r="E757" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H757" s="2">
+        <v>1</v>
+      </c>
+      <c r="I757" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O757" t="s">
+        <v>36</v>
+      </c>
+      <c r="P757" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="758" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B758" t="s">
+        <v>179</v>
+      </c>
+      <c r="C758" t="s">
+        <v>180</v>
+      </c>
+      <c r="D758"/>
+      <c r="E758" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H758" s="2">
+        <v>1</v>
+      </c>
+      <c r="I758" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O758" t="s">
+        <v>36</v>
+      </c>
+      <c r="P758" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="759" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B759" t="s">
+        <v>179</v>
+      </c>
+      <c r="C759" t="s">
+        <v>180</v>
+      </c>
+      <c r="D759"/>
+      <c r="E759" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H759" s="2">
+        <v>1</v>
+      </c>
+      <c r="I759" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O759" t="s">
+        <v>36</v>
+      </c>
+      <c r="P759" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="760" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A760" s="2"/>
+      <c r="B760" t="s">
+        <v>179</v>
+      </c>
+      <c r="C760" t="s">
+        <v>180</v>
+      </c>
+      <c r="E760" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G760" s="2"/>
+      <c r="H760" s="2">
+        <v>1</v>
+      </c>
+      <c r="I760" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K760" s="2"/>
+      <c r="L760" s="2"/>
+      <c r="O760" t="s">
+        <v>36</v>
+      </c>
+      <c r="P760" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="761" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B761" t="s">
+        <v>179</v>
+      </c>
+      <c r="C761" t="s">
+        <v>180</v>
+      </c>
+      <c r="D761"/>
+      <c r="E761" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H761" s="2">
+        <v>1</v>
+      </c>
+      <c r="I761" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O761" t="s">
+        <v>36</v>
+      </c>
+      <c r="P761" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="762" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B762" t="s">
+        <v>179</v>
+      </c>
+      <c r="C762" t="s">
+        <v>180</v>
+      </c>
+      <c r="D762"/>
+      <c r="E762" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H762" s="2">
+        <v>1</v>
+      </c>
+      <c r="I762" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O762" t="s">
+        <v>36</v>
+      </c>
+      <c r="P762" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="763" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B763" t="s">
+        <v>179</v>
+      </c>
+      <c r="C763" t="s">
+        <v>180</v>
+      </c>
+      <c r="D763"/>
+      <c r="E763" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H763" s="2">
+        <v>1</v>
+      </c>
+      <c r="I763" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O763" t="s">
+        <v>36</v>
+      </c>
+      <c r="P763" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="764" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B764" t="s">
+        <v>179</v>
+      </c>
+      <c r="C764" t="s">
+        <v>180</v>
+      </c>
+      <c r="D764"/>
+      <c r="E764" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H764" s="2">
+        <v>1</v>
+      </c>
+      <c r="I764" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O764" t="s">
+        <v>36</v>
+      </c>
+      <c r="P764" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="765" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B765" t="s">
+        <v>179</v>
+      </c>
+      <c r="C765" t="s">
+        <v>180</v>
+      </c>
+      <c r="D765"/>
+      <c r="E765" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H765" s="2">
+        <v>1</v>
+      </c>
+      <c r="I765" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O765" t="s">
+        <v>36</v>
+      </c>
+      <c r="P765" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="766" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B766" t="s">
+        <v>179</v>
+      </c>
+      <c r="C766" t="s">
+        <v>180</v>
+      </c>
+      <c r="D766"/>
+      <c r="E766" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H766" s="2">
+        <v>1</v>
+      </c>
+      <c r="I766" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O766" t="s">
+        <v>36</v>
+      </c>
+      <c r="P766" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="767" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B767" t="s">
+        <v>179</v>
+      </c>
+      <c r="C767" t="s">
+        <v>180</v>
+      </c>
+      <c r="D767"/>
+      <c r="E767" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H767" s="2">
+        <v>1</v>
+      </c>
+      <c r="I767" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="O767" t="s">
+        <v>36</v>
+      </c>
+      <c r="P767" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="768" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B768" t="s">
+        <v>720</v>
+      </c>
+      <c r="C768" t="s">
+        <v>721</v>
+      </c>
+      <c r="E768" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H768" s="2">
+        <v>2</v>
+      </c>
+      <c r="I768" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="J768" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="O768" t="s">
+        <v>19</v>
+      </c>
+      <c r="P768" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="769" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B769" t="s">
+        <v>720</v>
+      </c>
+      <c r="C769" t="s">
+        <v>721</v>
+      </c>
+      <c r="E769" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H769" s="2">
+        <v>2</v>
+      </c>
+      <c r="I769" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="J769" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="O769" t="s">
+        <v>19</v>
+      </c>
+      <c r="P769" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="770" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B770" t="s">
+        <v>720</v>
+      </c>
+      <c r="C770" t="s">
+        <v>721</v>
+      </c>
+      <c r="E770" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H770" s="2">
+        <v>2</v>
+      </c>
+      <c r="I770" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J770" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="O770" t="s">
+        <v>19</v>
+      </c>
+      <c r="P770" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="771" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A771"/>
+      <c r="B771" t="s">
+        <v>720</v>
+      </c>
+      <c r="C771" t="s">
+        <v>721</v>
+      </c>
+      <c r="E771" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H771" s="2">
+        <v>2</v>
+      </c>
+      <c r="I771" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J771" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="O771" t="s">
+        <v>19</v>
+      </c>
+      <c r="P771" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="772" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B772" t="s">
+        <v>720</v>
+      </c>
+      <c r="C772" t="s">
+        <v>721</v>
+      </c>
+      <c r="E772" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H772" s="2">
+        <v>2</v>
+      </c>
+      <c r="I772" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J772" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="O772" t="s">
+        <v>19</v>
+      </c>
+      <c r="P772" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="773" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B773" t="s">
+        <v>720</v>
+      </c>
+      <c r="C773" t="s">
+        <v>721</v>
+      </c>
+      <c r="E773" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H773" s="2">
+        <v>2</v>
+      </c>
+      <c r="I773" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J773" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="O773" t="s">
+        <v>19</v>
+      </c>
+      <c r="P773" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="774" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B774" t="s">
+        <v>720</v>
+      </c>
+      <c r="C774" t="s">
+        <v>721</v>
+      </c>
+      <c r="E774" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H774" s="2">
+        <v>2</v>
+      </c>
+      <c r="I774" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J774" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O774" t="s">
+        <v>19</v>
+      </c>
+      <c r="P774" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B775" t="s">
+        <v>720</v>
+      </c>
+      <c r="C775" t="s">
+        <v>721</v>
+      </c>
+      <c r="E775" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H775" s="2">
+        <v>2</v>
+      </c>
+      <c r="I775" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J775" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="O775" t="s">
+        <v>19</v>
+      </c>
+      <c r="P775" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B776" t="s">
+        <v>720</v>
+      </c>
+      <c r="C776" t="s">
+        <v>721</v>
+      </c>
+      <c r="E776" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H776" s="2">
+        <v>2</v>
+      </c>
+      <c r="I776" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J776" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="O776" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P776" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="777" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B777" t="s">
+        <v>720</v>
+      </c>
+      <c r="C777" t="s">
+        <v>721</v>
+      </c>
+      <c r="E777" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H777" s="2">
+        <v>2</v>
+      </c>
+      <c r="I777" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J777" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="O777" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P777" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="778" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B778" t="s">
+        <v>720</v>
+      </c>
+      <c r="C778" t="s">
+        <v>721</v>
+      </c>
+      <c r="E778" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H778" s="2">
+        <v>2</v>
+      </c>
+      <c r="I778" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J778" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O778" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P778" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="779" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B779" t="s">
+        <v>720</v>
+      </c>
+      <c r="C779" t="s">
+        <v>721</v>
+      </c>
+      <c r="E779" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H779" s="2">
+        <v>2</v>
+      </c>
+      <c r="I779" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J779" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="O779" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P779" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="780" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A780"/>
+      <c r="B780" t="s">
+        <v>720</v>
+      </c>
+      <c r="C780" t="s">
+        <v>721</v>
+      </c>
+      <c r="E780" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H780" s="2">
+        <v>2</v>
+      </c>
+      <c r="I780" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J780" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="O780" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P780" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="781" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B781" t="s">
+        <v>720</v>
+      </c>
+      <c r="C781" t="s">
+        <v>721</v>
+      </c>
+      <c r="E781" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H781" s="2">
+        <v>2</v>
+      </c>
+      <c r="I781" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J781" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="O781" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P781" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="782" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B782" t="s">
+        <v>720</v>
+      </c>
+      <c r="C782" t="s">
+        <v>721</v>
+      </c>
+      <c r="E782" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H782" s="2">
+        <v>2</v>
+      </c>
+      <c r="I782" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J782" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="O782" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P782" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="783" spans="1:16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" s="2"/>
+      <c r="B783" t="s">
+        <v>720</v>
+      </c>
+      <c r="C783" t="s">
+        <v>721</v>
+      </c>
+      <c r="D783" s="2"/>
+      <c r="E783" s="2">
+        <v>2008</v>
+      </c>
+      <c r="G783" s="2"/>
+      <c r="H783" s="2">
+        <v>2</v>
+      </c>
+      <c r="I783" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J783" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K783" s="2"/>
+      <c r="L783" s="2"/>
+      <c r="O783" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P783" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="784" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B784" t="s">
+        <v>720</v>
+      </c>
+      <c r="C784" t="s">
+        <v>721</v>
+      </c>
+      <c r="E784" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H784" s="2">
+        <v>2</v>
+      </c>
+      <c r="I784" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J784" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="O784" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P784" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="785" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B785" t="s">
+        <v>720</v>
+      </c>
+      <c r="C785" t="s">
+        <v>721</v>
+      </c>
+      <c r="E785" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H785" s="2">
+        <v>2</v>
+      </c>
+      <c r="I785" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J785" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="O785" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P785" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="786" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B786" t="s">
+        <v>720</v>
+      </c>
+      <c r="C786" t="s">
+        <v>721</v>
+      </c>
+      <c r="E786" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H786" s="2">
+        <v>2</v>
+      </c>
+      <c r="I786" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J786" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="O786" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P786" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="787" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B787" t="s">
+        <v>720</v>
+      </c>
+      <c r="C787" t="s">
+        <v>721</v>
+      </c>
+      <c r="E787" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H787" s="2">
+        <v>2</v>
+      </c>
+      <c r="I787" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J787" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="O787" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P787" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="788" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B788" t="s">
+        <v>720</v>
+      </c>
+      <c r="C788" t="s">
+        <v>721</v>
+      </c>
+      <c r="E788" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H788" s="2">
+        <v>2</v>
+      </c>
+      <c r="I788" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J788" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="O788" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P788" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="789" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B789" t="s">
+        <v>720</v>
+      </c>
+      <c r="C789" t="s">
+        <v>721</v>
+      </c>
+      <c r="E789" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H789" s="2">
+        <v>2</v>
+      </c>
+      <c r="I789" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J789" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O789" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P789" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B790" t="s">
+        <v>720</v>
+      </c>
+      <c r="C790" t="s">
+        <v>721</v>
+      </c>
+      <c r="E790" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H790" s="2">
+        <v>2</v>
+      </c>
+      <c r="I790" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J790" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="O790" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P790" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="791" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B791" t="s">
+        <v>353</v>
+      </c>
+      <c r="C791" t="s">
+        <v>354</v>
+      </c>
+      <c r="E791" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H791" s="2">
+        <v>1</v>
+      </c>
+      <c r="I791" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="O791" t="s">
+        <v>36</v>
+      </c>
+      <c r="P791" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="792" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A792" s="2"/>
+      <c r="B792" t="s">
+        <v>353</v>
+      </c>
+      <c r="C792" t="s">
+        <v>354</v>
+      </c>
+      <c r="D792" s="2"/>
+      <c r="E792" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F792" s="2"/>
+      <c r="G792" s="2"/>
+      <c r="H792" s="2">
+        <v>1</v>
+      </c>
+      <c r="I792" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="K792" s="2"/>
+      <c r="L792" s="2"/>
+      <c r="O792" t="s">
+        <v>36</v>
+      </c>
+      <c r="P792" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B793" t="s">
+        <v>353</v>
+      </c>
+      <c r="C793" t="s">
+        <v>354</v>
+      </c>
+      <c r="E793" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H793" s="2">
+        <v>1</v>
+      </c>
+      <c r="I793" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="O793" t="s">
+        <v>36</v>
+      </c>
+      <c r="P793" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B794" t="s">
+        <v>353</v>
+      </c>
+      <c r="C794" t="s">
+        <v>354</v>
+      </c>
+      <c r="E794" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H794" s="2">
+        <v>1</v>
+      </c>
+      <c r="I794" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="O794" t="s">
+        <v>36</v>
+      </c>
+      <c r="P794" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A795"/>
+      <c r="B795" t="s">
+        <v>353</v>
+      </c>
+      <c r="C795" t="s">
+        <v>354</v>
+      </c>
+      <c r="E795" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H795" s="2">
+        <v>1</v>
+      </c>
+      <c r="I795" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O795" t="s">
+        <v>36</v>
+      </c>
+      <c r="P795" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="796" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B796" t="s">
+        <v>353</v>
+      </c>
+      <c r="C796" t="s">
+        <v>354</v>
+      </c>
+      <c r="E796" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H796" s="2">
+        <v>1</v>
+      </c>
+      <c r="I796" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="O796" t="s">
+        <v>36</v>
+      </c>
+      <c r="P796" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B797" t="s">
+        <v>353</v>
+      </c>
+      <c r="C797" t="s">
+        <v>354</v>
+      </c>
+      <c r="E797" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H797" s="2">
+        <v>1</v>
+      </c>
+      <c r="I797" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="O797" t="s">
+        <v>36</v>
+      </c>
+      <c r="P797" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="798" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B798" t="s">
+        <v>353</v>
+      </c>
+      <c r="C798" t="s">
+        <v>354</v>
+      </c>
+      <c r="E798" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H798" s="2">
+        <v>1</v>
+      </c>
+      <c r="I798" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="O798" t="s">
+        <v>36</v>
+      </c>
+      <c r="P798" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="799" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B799" t="s">
+        <v>353</v>
+      </c>
+      <c r="C799" t="s">
+        <v>354</v>
+      </c>
+      <c r="E799" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H799" s="2">
+        <v>1</v>
+      </c>
+      <c r="I799" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="O799" t="s">
+        <v>36</v>
+      </c>
+      <c r="P799" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A800"/>
+      <c r="B800" t="s">
+        <v>353</v>
+      </c>
+      <c r="C800" t="s">
+        <v>354</v>
+      </c>
+      <c r="E800" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H800" s="2">
+        <v>1</v>
+      </c>
+      <c r="I800" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="O800" t="s">
+        <v>36</v>
+      </c>
+      <c r="P800" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="801" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B801" t="s">
+        <v>77</v>
+      </c>
+      <c r="C801" t="s">
+        <v>78</v>
+      </c>
+      <c r="E801" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H801" s="2">
+        <v>1</v>
+      </c>
+      <c r="I801" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O801" t="s">
+        <v>19</v>
+      </c>
+      <c r="P801" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="802" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B802" t="s">
+        <v>77</v>
+      </c>
+      <c r="C802" t="s">
+        <v>78</v>
+      </c>
+      <c r="E802" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H802" s="2">
+        <v>1</v>
+      </c>
+      <c r="I802" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O802" t="s">
+        <v>19</v>
+      </c>
+      <c r="P802" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="803" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B803" t="s">
+        <v>77</v>
+      </c>
+      <c r="C803" t="s">
+        <v>78</v>
+      </c>
+      <c r="E803" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H803" s="2">
+        <v>1</v>
+      </c>
+      <c r="I803" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="O803" t="s">
+        <v>19</v>
+      </c>
+      <c r="P803" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="804" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A804" s="2"/>
+      <c r="B804" t="s">
+        <v>77</v>
+      </c>
+      <c r="C804" t="s">
+        <v>78</v>
+      </c>
+      <c r="D804" s="2"/>
+      <c r="E804" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G804" s="2"/>
+      <c r="H804" s="2">
+        <v>1</v>
+      </c>
+      <c r="I804" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K804" s="2"/>
+      <c r="L804" s="2"/>
+      <c r="O804" t="s">
+        <v>19</v>
+      </c>
+      <c r="P804" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="805" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B805" t="s">
+        <v>77</v>
+      </c>
+      <c r="C805" t="s">
+        <v>78</v>
+      </c>
+      <c r="E805" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H805" s="2">
+        <v>1</v>
+      </c>
+      <c r="I805" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="O805" t="s">
+        <v>19</v>
+      </c>
+      <c r="P805" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="806" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B806" t="s">
+        <v>77</v>
+      </c>
+      <c r="C806" t="s">
+        <v>78</v>
+      </c>
+      <c r="E806" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H806" s="2">
+        <v>1</v>
+      </c>
+      <c r="I806" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="O806" t="s">
+        <v>19</v>
+      </c>
+      <c r="P806" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="807" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B807" t="s">
+        <v>77</v>
+      </c>
+      <c r="C807" t="s">
+        <v>78</v>
+      </c>
+      <c r="E807" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H807" s="2">
+        <v>1</v>
+      </c>
+      <c r="I807" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O807" t="s">
+        <v>19</v>
+      </c>
+      <c r="P807" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="808" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B808" t="s">
+        <v>77</v>
+      </c>
+      <c r="C808" t="s">
+        <v>78</v>
+      </c>
+      <c r="E808" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H808" s="2">
+        <v>1</v>
+      </c>
+      <c r="I808" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O808" t="s">
+        <v>19</v>
+      </c>
+      <c r="P808" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="809" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B809" t="s">
+        <v>514</v>
+      </c>
+      <c r="C809" t="s">
+        <v>515</v>
+      </c>
+      <c r="E809" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H809" s="2">
+        <v>1</v>
+      </c>
+      <c r="I809" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="O809" t="s">
+        <v>19</v>
+      </c>
+      <c r="P809" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="810" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B810" t="s">
+        <v>514</v>
+      </c>
+      <c r="C810" t="s">
+        <v>519</v>
+      </c>
+      <c r="E810" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H810" s="2">
+        <v>1</v>
+      </c>
+      <c r="I810" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="O810" t="s">
+        <v>19</v>
+      </c>
+      <c r="P810" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="811" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B811" t="s">
+        <v>514</v>
+      </c>
+      <c r="C811" t="s">
+        <v>520</v>
+      </c>
+      <c r="E811" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H811" s="2">
+        <v>1</v>
+      </c>
+      <c r="I811" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="O811" t="s">
+        <v>19</v>
+      </c>
+      <c r="P811" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="812" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B812" t="s">
+        <v>514</v>
+      </c>
+      <c r="C812" t="s">
+        <v>768</v>
+      </c>
+      <c r="E812" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H812" s="2">
+        <v>1</v>
+      </c>
+      <c r="I812" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="O812" t="s">
+        <v>19</v>
+      </c>
+      <c r="P812" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="813" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B813" t="s">
+        <v>514</v>
+      </c>
+      <c r="C813" t="s">
+        <v>769</v>
+      </c>
+      <c r="E813" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H813" s="2">
+        <v>1</v>
+      </c>
+      <c r="I813" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="O813" t="s">
+        <v>19</v>
+      </c>
+      <c r="P813" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A814"/>
+      <c r="B814" t="s">
+        <v>514</v>
+      </c>
+      <c r="C814" t="s">
+        <v>770</v>
+      </c>
+      <c r="E814" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H814" s="2">
+        <v>1</v>
+      </c>
+      <c r="I814" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="O814" t="s">
+        <v>19</v>
+      </c>
+      <c r="P814" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B815" t="s">
+        <v>514</v>
+      </c>
+      <c r="C815" t="s">
+        <v>771</v>
+      </c>
+      <c r="E815" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H815" s="2">
+        <v>1</v>
+      </c>
+      <c r="I815" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="O815" t="s">
+        <v>19</v>
+      </c>
+      <c r="P815" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="816" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B816" t="s">
+        <v>514</v>
+      </c>
+      <c r="C816" t="s">
+        <v>772</v>
+      </c>
+      <c r="E816" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H816" s="2">
+        <v>1</v>
+      </c>
+      <c r="I816" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="O816" t="s">
+        <v>19</v>
+      </c>
+      <c r="P816" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="817" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B817" t="s">
+        <v>514</v>
+      </c>
+      <c r="C817" t="s">
+        <v>773</v>
+      </c>
+      <c r="E817" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H817" s="2">
+        <v>1</v>
+      </c>
+      <c r="I817" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="O817" t="s">
+        <v>19</v>
+      </c>
+      <c r="P817" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="818" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B818" t="s">
+        <v>514</v>
+      </c>
+      <c r="C818" t="s">
+        <v>774</v>
+      </c>
+      <c r="E818" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H818" s="2">
+        <v>1</v>
+      </c>
+      <c r="I818" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="O818" t="s">
+        <v>19</v>
+      </c>
+      <c r="P818" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="819" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B819" t="s">
+        <v>514</v>
+      </c>
+      <c r="C819" t="s">
+        <v>775</v>
+      </c>
+      <c r="E819" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H819" s="2">
+        <v>1</v>
+      </c>
+      <c r="I819" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="O819" t="s">
+        <v>19</v>
+      </c>
+      <c r="P819" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="820" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A820" s="2"/>
+      <c r="B820" t="s">
+        <v>263</v>
+      </c>
+      <c r="C820" t="s">
+        <v>264</v>
+      </c>
+      <c r="E820" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G820" s="2"/>
+      <c r="H820" s="2">
+        <v>2</v>
+      </c>
+      <c r="I820" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J820" t="s">
+        <v>777</v>
+      </c>
+      <c r="K820" s="2"/>
+      <c r="L820" s="2"/>
+      <c r="O820" t="s">
+        <v>36</v>
+      </c>
+      <c r="P820" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="821" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B821" t="s">
+        <v>263</v>
+      </c>
+      <c r="C821" t="s">
+        <v>264</v>
+      </c>
+      <c r="D821"/>
+      <c r="E821" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H821" s="2">
+        <v>2</v>
+      </c>
+      <c r="I821" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J821" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="O821" t="s">
+        <v>36</v>
+      </c>
+      <c r="P821" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="822" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B822" t="s">
+        <v>263</v>
+      </c>
+      <c r="C822" t="s">
+        <v>264</v>
+      </c>
+      <c r="D822"/>
+      <c r="E822" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H822" s="2">
+        <v>2</v>
+      </c>
+      <c r="I822" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J822" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O822" t="s">
+        <v>36</v>
+      </c>
+      <c r="P822" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="823" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A823"/>
+      <c r="B823" t="s">
+        <v>263</v>
+      </c>
+      <c r="C823" t="s">
+        <v>264</v>
+      </c>
+      <c r="D823"/>
+      <c r="E823" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H823" s="2">
+        <v>2</v>
+      </c>
+      <c r="I823" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J823" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="O823" t="s">
+        <v>36</v>
+      </c>
+      <c r="P823" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="824" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A824" s="2"/>
+      <c r="B824" t="s">
+        <v>215</v>
+      </c>
+      <c r="C824" t="s">
+        <v>216</v>
+      </c>
+      <c r="E824" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G824" s="2"/>
+      <c r="H824" s="2">
+        <v>1</v>
+      </c>
+      <c r="I824" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K824" s="2"/>
+      <c r="L824" s="2"/>
+      <c r="O824" t="s">
+        <v>19</v>
+      </c>
+      <c r="P824" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="825" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B825" t="s">
+        <v>111</v>
+      </c>
+      <c r="C825" t="s">
+        <v>112</v>
+      </c>
+      <c r="E825" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H825" s="2">
+        <v>2</v>
+      </c>
+      <c r="I825" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J825" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O825" t="s">
+        <v>19</v>
+      </c>
+      <c r="P825" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="826" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B826" t="s">
+        <v>647</v>
+      </c>
+      <c r="C826" t="s">
+        <v>648</v>
+      </c>
+      <c r="E826" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H826" s="2">
+        <v>1</v>
+      </c>
+      <c r="I826" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="O826" t="s">
+        <v>19</v>
+      </c>
+      <c r="P826" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="827" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B827" t="s">
+        <v>647</v>
+      </c>
+      <c r="C827" t="s">
+        <v>648</v>
+      </c>
+      <c r="E827" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H827" s="2">
+        <v>1</v>
+      </c>
+      <c r="I827" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="O827" t="s">
+        <v>19</v>
+      </c>
+      <c r="P827" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="828" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B828" t="s">
+        <v>647</v>
+      </c>
+      <c r="C828" t="s">
+        <v>648</v>
+      </c>
+      <c r="E828" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H828" s="2">
+        <v>1</v>
+      </c>
+      <c r="I828" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O828" t="s">
+        <v>19</v>
+      </c>
+      <c r="P828" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="829" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B829" t="s">
+        <v>647</v>
+      </c>
+      <c r="C829" t="s">
+        <v>648</v>
+      </c>
+      <c r="E829" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H829" s="2">
+        <v>1</v>
+      </c>
+      <c r="I829" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="O829" t="s">
+        <v>19</v>
+      </c>
+      <c r="P829" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="830" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B830" t="s">
+        <v>647</v>
+      </c>
+      <c r="C830" t="s">
+        <v>648</v>
+      </c>
+      <c r="E830" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H830" s="2">
+        <v>1</v>
+      </c>
+      <c r="I830" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="O830" t="s">
+        <v>19</v>
+      </c>
+      <c r="P830" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="831" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B831" t="s">
+        <v>647</v>
+      </c>
+      <c r="C831" t="s">
+        <v>648</v>
+      </c>
+      <c r="E831" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H831" s="2">
+        <v>1</v>
+      </c>
+      <c r="I831" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="O831" t="s">
+        <v>19</v>
+      </c>
+      <c r="P831" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="832" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B832" t="s">
+        <v>647</v>
+      </c>
+      <c r="C832" t="s">
+        <v>648</v>
+      </c>
+      <c r="E832" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H832" s="2">
+        <v>1</v>
+      </c>
+      <c r="I832" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="O832" t="s">
+        <v>19</v>
+      </c>
+      <c r="P832" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="833" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B833" t="s">
+        <v>647</v>
+      </c>
+      <c r="C833" t="s">
+        <v>648</v>
+      </c>
+      <c r="E833" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H833" s="2">
+        <v>1</v>
+      </c>
+      <c r="I833" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="O833" t="s">
+        <v>19</v>
+      </c>
+      <c r="P833" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="834" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A834" s="2"/>
+      <c r="B834" t="s">
+        <v>647</v>
+      </c>
+      <c r="C834" t="s">
+        <v>648</v>
+      </c>
+      <c r="D834" s="2"/>
+      <c r="E834" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G834" s="2"/>
+      <c r="H834" s="2">
+        <v>1</v>
+      </c>
+      <c r="I834" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K834" s="2"/>
+      <c r="L834" s="2"/>
+      <c r="O834" t="s">
+        <v>19</v>
+      </c>
+      <c r="P834" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="835" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B835" t="s">
+        <v>647</v>
+      </c>
+      <c r="C835" t="s">
+        <v>648</v>
+      </c>
+      <c r="E835" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H835" s="2">
+        <v>1</v>
+      </c>
+      <c r="I835" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="O835" t="s">
+        <v>19</v>
+      </c>
+      <c r="P835" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="836" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B836" t="s">
+        <v>647</v>
+      </c>
+      <c r="C836" t="s">
+        <v>648</v>
+      </c>
+      <c r="E836" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H836" s="2">
+        <v>1</v>
+      </c>
+      <c r="I836" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O836" t="s">
+        <v>19</v>
+      </c>
+      <c r="P836" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="837" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B837" t="s">
+        <v>647</v>
+      </c>
+      <c r="C837" t="s">
+        <v>648</v>
+      </c>
+      <c r="E837" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H837" s="2">
+        <v>1</v>
+      </c>
+      <c r="I837" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="O837" t="s">
+        <v>19</v>
+      </c>
+      <c r="P837" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="838" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B838" t="s">
+        <v>647</v>
+      </c>
+      <c r="C838" t="s">
+        <v>648</v>
+      </c>
+      <c r="E838" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H838" s="2">
+        <v>1</v>
+      </c>
+      <c r="I838" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="O838" t="s">
+        <v>19</v>
+      </c>
+      <c r="P838" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="839" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A839" s="2"/>
+      <c r="B839" t="s">
+        <v>602</v>
+      </c>
+      <c r="C839" t="s">
+        <v>603</v>
+      </c>
+      <c r="E839" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G839" s="2"/>
+      <c r="H839" s="2">
+        <v>1</v>
+      </c>
+      <c r="I839" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="K839" s="2"/>
+      <c r="L839" s="2"/>
+      <c r="O839" t="s">
+        <v>19</v>
+      </c>
+      <c r="P839" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="840" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B840" t="s">
+        <v>602</v>
+      </c>
+      <c r="C840" t="s">
+        <v>603</v>
+      </c>
+      <c r="D840"/>
+      <c r="E840" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H840" s="2">
+        <v>1</v>
+      </c>
+      <c r="I840" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="O840" t="s">
+        <v>19</v>
+      </c>
+      <c r="P840" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="841" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A841" s="2"/>
+      <c r="B841" t="s">
+        <v>602</v>
+      </c>
+      <c r="C841" t="s">
+        <v>603</v>
+      </c>
+      <c r="E841" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G841" s="2"/>
+      <c r="H841" s="2">
+        <v>1</v>
+      </c>
+      <c r="I841" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="K841" s="2"/>
+      <c r="L841" s="2"/>
+      <c r="O841" t="s">
+        <v>19</v>
+      </c>
+      <c r="P841" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="842" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A842" s="2"/>
+      <c r="B842" t="s">
+        <v>602</v>
+      </c>
+      <c r="C842" t="s">
+        <v>603</v>
+      </c>
+      <c r="E842" s="2">
+        <v>2009</v>
+      </c>
+      <c r="G842" s="2"/>
+      <c r="H842" s="2">
+        <v>1</v>
+      </c>
+      <c r="I842" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="K842" s="2"/>
+      <c r="L842" s="2"/>
+      <c r="O842" t="s">
+        <v>19</v>
+      </c>
+      <c r="P842" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="843" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B843" t="s">
+        <v>602</v>
+      </c>
+      <c r="C843" t="s">
+        <v>603</v>
+      </c>
+      <c r="D843"/>
+      <c r="E843" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H843" s="2">
+        <v>1</v>
+      </c>
+      <c r="I843" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="O843" t="s">
+        <v>19</v>
+      </c>
+      <c r="P843" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="844" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B844" t="s">
+        <v>602</v>
+      </c>
+      <c r="C844" t="s">
+        <v>603</v>
+      </c>
+      <c r="D844"/>
+      <c r="E844" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H844" s="2">
+        <v>1</v>
+      </c>
+      <c r="I844" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="O844" t="s">
+        <v>19</v>
+      </c>
+      <c r="P844" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="845" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B845" t="s">
+        <v>29</v>
+      </c>
+      <c r="C845" t="s">
+        <v>30</v>
+      </c>
+      <c r="E845" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H845" s="2">
+        <v>1</v>
+      </c>
+      <c r="I845" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="O845" t="s">
+        <v>36</v>
+      </c>
+      <c r="P845" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="846" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B846" t="s">
+        <v>29</v>
+      </c>
+      <c r="C846" t="s">
+        <v>30</v>
+      </c>
+      <c r="E846" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H846" s="2">
+        <v>1</v>
+      </c>
+      <c r="I846" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="O846" t="s">
+        <v>36</v>
+      </c>
+      <c r="P846" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="847" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B847" t="s">
+        <v>29</v>
+      </c>
+      <c r="C847" t="s">
+        <v>30</v>
+      </c>
+      <c r="E847" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H847" s="2">
+        <v>1</v>
+      </c>
+      <c r="I847" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="O847" t="s">
+        <v>36</v>
+      </c>
+      <c r="P847" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="848" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B848" t="s">
+        <v>790</v>
+      </c>
+      <c r="C848" t="s">
+        <v>791</v>
+      </c>
+      <c r="E848" s="2">
+        <v>2009</v>
+      </c>
+      <c r="H848" s="2">
+        <v>2</v>
+      </c>
+      <c r="I848" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J848" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="O848" t="s">
+        <v>19</v>
+      </c>
+      <c r="P848" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="849" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B849"/>
+    </row>
+    <row r="854" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A854" s="2"/>
+      <c r="G854" s="2"/>
+      <c r="K854" s="2"/>
+      <c r="L854" s="2"/>
+      <c r="O854" s="2"/>
+    </row>
+    <row r="857" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C857"/>
+      <c r="D857"/>
+    </row>
+    <row r="859" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A859" s="2"/>
+      <c r="G859" s="2"/>
+      <c r="K859" s="2"/>
+      <c r="L859" s="2"/>
+      <c r="O859" s="2"/>
+    </row>
+    <row r="861" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="2"/>
+      <c r="G861" s="2"/>
+      <c r="K861" s="2"/>
+      <c r="L861" s="2"/>
+      <c r="O861" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
